--- a/DataAgregation/output/clusters/gender-clusters.xlsx
+++ b/DataAgregation/output/clusters/gender-clusters.xlsx
@@ -5,17 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="New Users" sheetId="4" r:id="rId7"/>
-    <sheet name="Revenue" sheetId="5" r:id="rId9"/>
-    <sheet name="MAU" sheetId="6" r:id="rId10"/>
-    <sheet name="DAU" sheetId="7" r:id="rId11"/>
+    <sheet name="DAU" sheetId="10" r:id="rId14"/>
+    <sheet name="New Users" sheetId="11" r:id="rId16"/>
+    <sheet name="Revenue" sheetId="12" r:id="rId17"/>
+    <sheet name="MAU" sheetId="13" r:id="rId18"/>
+    <sheet name="Items Statistic" sheetId="14" r:id="rId19"/>
+    <sheet name="Stages Statistic" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +119,369 @@
   </si>
   <si>
     <t>ItemName</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>A Pony</t>
+  </si>
+  <si>
+    <t>Anarchist Cookbook</t>
+  </si>
+  <si>
+    <t>Best Friend</t>
+  </si>
+  <si>
+    <t>Black Hole</t>
+  </si>
+  <si>
+    <t>Blank Card</t>
+  </si>
+  <si>
+    <t>Blood Rights</t>
+  </si>
+  <si>
+    <t>Book of Revelations</t>
+  </si>
+  <si>
+    <t>Book of Secrets</t>
+  </si>
+  <si>
+    <t>Book of Shadows</t>
+  </si>
+  <si>
+    <t>Book of the Dead</t>
+  </si>
+  <si>
+    <t>Box of Friends</t>
+  </si>
+  <si>
+    <t>Box of Spiders</t>
+  </si>
+  <si>
+    <t>Breath of Life</t>
+  </si>
+  <si>
+    <t>Broken Shovel</t>
+  </si>
+  <si>
+    <t>Brown Nugget</t>
+  </si>
+  <si>
+    <t>Butter Bean</t>
+  </si>
+  <si>
+    <t>Clicker</t>
+  </si>
+  <si>
+    <t>Compost</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>Crack the Sky</t>
+  </si>
+  <si>
+    <t>Crooked Penny</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>D Infinity</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Dads Key</t>
+  </si>
+  <si>
+    <t>Dataminer</t>
+  </si>
+  <si>
+    <t>Dead Sea Scrolls</t>
+  </si>
+  <si>
+    <t>Deck of Cards</t>
+  </si>
+  <si>
+    <t>Delirious</t>
+  </si>
+  <si>
+    <t>Diplopia</t>
+  </si>
+  <si>
+    <t>Doctors Remote</t>
+  </si>
+  <si>
+    <t>Dull Razor</t>
+  </si>
+  <si>
+    <t>Edens Soul</t>
+  </si>
+  <si>
+    <t>Flush!</t>
+  </si>
+  <si>
+    <t>Forget Me Now</t>
+  </si>
+  <si>
+    <t>Friendly Ball</t>
+  </si>
+  <si>
+    <t>Glass Cannon</t>
+  </si>
+  <si>
+    <t>Glowing Hour Glass</t>
+  </si>
+  <si>
+    <t>Guppys Head</t>
+  </si>
+  <si>
+    <t>Guppys Paw</t>
+  </si>
+  <si>
+    <t>Head of Krampus</t>
+  </si>
+  <si>
+    <t>How to Jump</t>
+  </si>
+  <si>
+    <t>IV Bag</t>
+  </si>
+  <si>
+    <t>Jar of Flies</t>
+  </si>
+  <si>
+    <t>Kamikaze!</t>
+  </si>
+  <si>
+    <t>Kidney Bean</t>
+  </si>
+  <si>
+    <t>Lemon Mishap</t>
+  </si>
+  <si>
+    <t>Magic Fingers</t>
+  </si>
+  <si>
+    <t>Mama Mega!</t>
+  </si>
+  <si>
+    <t>Mega Bean</t>
+  </si>
+  <si>
+    <t>Mega Blast</t>
+  </si>
+  <si>
+    <t>Metronome</t>
+  </si>
+  <si>
+    <t>Mine Crafter</t>
+  </si>
+  <si>
+    <t>Moms Bottle of Pills</t>
+  </si>
+  <si>
+    <t>Moms Box</t>
+  </si>
+  <si>
+    <t>Moms Shovel</t>
+  </si>
+  <si>
+    <t>Monster Manual</t>
+  </si>
+  <si>
+    <t>Monstros Tooth</t>
+  </si>
+  <si>
+    <t>Moving Box</t>
+  </si>
+  <si>
+    <t>Mr. Boom</t>
+  </si>
+  <si>
+    <t>Mr. ME!</t>
+  </si>
+  <si>
+    <t>My Little Unicorn</t>
+  </si>
+  <si>
+    <t>Mystery Gift</t>
+  </si>
+  <si>
+    <t>Notched Axe</t>
+  </si>
+  <si>
+    <t>Pandoras Box</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Plan C</t>
+  </si>
+  <si>
+    <t>Portable Slot</t>
+  </si>
+  <si>
+    <t>Potato Peeler</t>
+  </si>
+  <si>
+    <t>Prayer Card</t>
+  </si>
+  <si>
+    <t>Razor Blade</t>
+  </si>
+  <si>
+    <t>Remote Detonator</t>
+  </si>
+  <si>
+    <t>Sacrificial Altar</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Sharp Straw</t>
+  </si>
+  <si>
+    <t>Shoop Da Whoop!</t>
+  </si>
+  <si>
+    <t>Sprinkler</t>
+  </si>
+  <si>
+    <t>Tammys Head</t>
+  </si>
+  <si>
+    <t>Tear Detonator</t>
+  </si>
+  <si>
+    <t>Telekinesis</t>
+  </si>
+  <si>
+    <t>Telepathy for Dummies</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Teleport 2.0</t>
+  </si>
+  <si>
+    <t>The Bean</t>
+  </si>
+  <si>
+    <t>The Book of Belial</t>
+  </si>
+  <si>
+    <t>The Book of Sin</t>
+  </si>
+  <si>
+    <t>The Boomerang</t>
+  </si>
+  <si>
+    <t>The Candle</t>
+  </si>
+  <si>
+    <t>The D6</t>
+  </si>
+  <si>
+    <t>The Gamekid</t>
+  </si>
+  <si>
+    <t>The Hourglass</t>
+  </si>
+  <si>
+    <t>The Jar</t>
+  </si>
+  <si>
+    <t>The Nail</t>
+  </si>
+  <si>
+    <t>The Necronomicon</t>
+  </si>
+  <si>
+    <t>The Pinking Shears</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Unicorn Stump</t>
+  </si>
+  <si>
+    <t>Ventricle Razor</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Wait What?</t>
+  </si>
+  <si>
+    <t>We Need to Go Deeper!</t>
+  </si>
+  <si>
+    <t>White Pony</t>
+  </si>
+  <si>
+    <t>Wooden Nickel</t>
+  </si>
+  <si>
+    <t>Yum Heart</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Starts</t>
+  </si>
+  <si>
+    <t>Ends</t>
+  </si>
+  <si>
+    <t>Wins</t>
   </si>
 </sst>
 </file>
@@ -160,7 +525,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -195,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="0">
-        <v>12090</v>
+        <v>14234</v>
       </c>
       <c r="C3" s="0">
-        <v>11951</v>
+        <v>14070</v>
       </c>
     </row>
     <row r="4">
@@ -206,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="0">
-        <v>19661</v>
+        <v>21184</v>
       </c>
       <c r="C4" s="0">
-        <v>19620</v>
+        <v>21052</v>
       </c>
     </row>
     <row r="5">
@@ -217,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0">
-        <v>24445</v>
+        <v>28110</v>
       </c>
       <c r="C5" s="0">
-        <v>24503</v>
+        <v>28203</v>
       </c>
     </row>
     <row r="6">
@@ -228,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0">
-        <v>30849</v>
+        <v>34924</v>
       </c>
       <c r="C6" s="0">
-        <v>31022</v>
+        <v>35035</v>
       </c>
     </row>
     <row r="7">
@@ -239,10 +604,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0">
-        <v>33518</v>
+        <v>41948</v>
       </c>
       <c r="C7" s="0">
-        <v>33507</v>
+        <v>41894</v>
       </c>
     </row>
     <row r="8">
@@ -250,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="0">
-        <v>40294</v>
+        <v>48990</v>
       </c>
       <c r="C8" s="0">
-        <v>40318</v>
+        <v>49079</v>
       </c>
     </row>
     <row r="9">
@@ -261,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="0">
-        <v>42148</v>
+        <v>55973</v>
       </c>
       <c r="C9" s="0">
-        <v>42459</v>
+        <v>56361</v>
       </c>
     </row>
     <row r="10">
@@ -272,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="0">
-        <v>46676</v>
+        <v>63042</v>
       </c>
       <c r="C10" s="0">
-        <v>47164</v>
+        <v>63391</v>
       </c>
     </row>
     <row r="11">
@@ -283,10 +648,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="0">
-        <v>48310</v>
+        <v>70134</v>
       </c>
       <c r="C11" s="0">
-        <v>48483</v>
+        <v>70333</v>
       </c>
     </row>
     <row r="12">
@@ -294,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0">
-        <v>54584</v>
+        <v>76932</v>
       </c>
       <c r="C12" s="0">
-        <v>54707</v>
+        <v>77435</v>
       </c>
     </row>
     <row r="13">
@@ -305,10 +670,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0">
-        <v>53928</v>
+        <v>84478</v>
       </c>
       <c r="C13" s="0">
-        <v>54023</v>
+        <v>84324</v>
       </c>
     </row>
     <row r="14">
@@ -316,10 +681,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="0">
-        <v>60401</v>
+        <v>91161</v>
       </c>
       <c r="C14" s="0">
-        <v>60546</v>
+        <v>91327</v>
       </c>
     </row>
     <row r="15">
@@ -327,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="0">
-        <v>59030</v>
+        <v>98372</v>
       </c>
       <c r="C15" s="0">
-        <v>58643</v>
+        <v>97983</v>
       </c>
     </row>
     <row r="16">
@@ -338,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="0">
-        <v>65308</v>
+        <v>105415</v>
       </c>
       <c r="C16" s="0">
-        <v>65171</v>
+        <v>105280</v>
       </c>
     </row>
     <row r="17">
@@ -349,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="0">
-        <v>65880</v>
+        <v>112177</v>
       </c>
       <c r="C17" s="0">
-        <v>65852</v>
+        <v>112439</v>
       </c>
     </row>
     <row r="18">
@@ -360,10 +725,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="0">
-        <v>68884</v>
+        <v>119134</v>
       </c>
       <c r="C18" s="0">
-        <v>69079</v>
+        <v>119452</v>
       </c>
     </row>
     <row r="19">
@@ -371,10 +736,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="0">
-        <v>70623</v>
+        <v>126288</v>
       </c>
       <c r="C19" s="0">
-        <v>70861</v>
+        <v>126819</v>
       </c>
     </row>
     <row r="20">
@@ -382,10 +747,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0">
-        <v>72017</v>
+        <v>133431</v>
       </c>
       <c r="C20" s="0">
-        <v>72184</v>
+        <v>133667</v>
       </c>
     </row>
     <row r="21">
@@ -393,10 +758,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="0">
-        <v>76132</v>
+        <v>141014</v>
       </c>
       <c r="C21" s="0">
-        <v>75794</v>
+        <v>140222</v>
       </c>
     </row>
     <row r="22">
@@ -404,10 +769,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="0">
-        <v>75060</v>
+        <v>147490</v>
       </c>
       <c r="C22" s="0">
-        <v>74721</v>
+        <v>147317</v>
       </c>
     </row>
     <row r="23">
@@ -415,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="0">
-        <v>77698</v>
+        <v>154494</v>
       </c>
       <c r="C23" s="0">
-        <v>77670</v>
+        <v>154822</v>
       </c>
     </row>
     <row r="24">
@@ -426,10 +791,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="0">
-        <v>79314</v>
+        <v>161047</v>
       </c>
       <c r="C24" s="0">
-        <v>79910</v>
+        <v>161970</v>
       </c>
     </row>
     <row r="25">
@@ -437,10 +802,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="0">
-        <v>80447</v>
+        <v>168617</v>
       </c>
       <c r="C25" s="0">
-        <v>80531</v>
+        <v>168658</v>
       </c>
     </row>
     <row r="26">
@@ -448,10 +813,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="0">
-        <v>83099</v>
+        <v>175890</v>
       </c>
       <c r="C26" s="0">
-        <v>83317</v>
+        <v>175878</v>
       </c>
     </row>
     <row r="27">
@@ -459,10 +824,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="0">
-        <v>82355</v>
+        <v>182795</v>
       </c>
       <c r="C27" s="0">
-        <v>82425</v>
+        <v>182663</v>
       </c>
     </row>
     <row r="28">
@@ -470,10 +835,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="0">
-        <v>84235</v>
+        <v>189394</v>
       </c>
       <c r="C28" s="0">
-        <v>84236</v>
+        <v>190167</v>
       </c>
     </row>
     <row r="29">
@@ -481,10 +846,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="0">
-        <v>83306</v>
+        <v>196439</v>
       </c>
       <c r="C29" s="0">
-        <v>83413</v>
+        <v>196685</v>
       </c>
     </row>
     <row r="30">
@@ -492,10 +857,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="0">
-        <v>86692</v>
+        <v>204184</v>
       </c>
       <c r="C30" s="0">
-        <v>86178</v>
+        <v>203482</v>
       </c>
     </row>
     <row r="31">
@@ -503,10 +868,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="0">
-        <v>85226</v>
+        <v>210791</v>
       </c>
       <c r="C31" s="0">
-        <v>85069</v>
+        <v>210789</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +879,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0">
+        <v>7203</v>
+      </c>
+      <c r="C2" s="0">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0">
+        <v>12090</v>
+      </c>
+      <c r="C3" s="0">
+        <v>11951</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0">
+        <v>19661</v>
+      </c>
+      <c r="C4" s="0">
+        <v>19620</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0">
+        <v>24445</v>
+      </c>
+      <c r="C5" s="0">
+        <v>24503</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0">
+        <v>30849</v>
+      </c>
+      <c r="C6" s="0">
+        <v>31022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0">
+        <v>33518</v>
+      </c>
+      <c r="C7" s="0">
+        <v>33507</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0">
+        <v>40294</v>
+      </c>
+      <c r="C8" s="0">
+        <v>40318</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0">
+        <v>42148</v>
+      </c>
+      <c r="C9" s="0">
+        <v>42459</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0">
+        <v>46676</v>
+      </c>
+      <c r="C10" s="0">
+        <v>47164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0">
+        <v>48310</v>
+      </c>
+      <c r="C11" s="0">
+        <v>48483</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0">
+        <v>54584</v>
+      </c>
+      <c r="C12" s="0">
+        <v>54707</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0">
+        <v>53928</v>
+      </c>
+      <c r="C13" s="0">
+        <v>54023</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0">
+        <v>60401</v>
+      </c>
+      <c r="C14" s="0">
+        <v>60546</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0">
+        <v>59030</v>
+      </c>
+      <c r="C15" s="0">
+        <v>58643</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0">
+        <v>65308</v>
+      </c>
+      <c r="C16" s="0">
+        <v>65171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0">
+        <v>65880</v>
+      </c>
+      <c r="C17" s="0">
+        <v>65852</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0">
+        <v>68884</v>
+      </c>
+      <c r="C18" s="0">
+        <v>69079</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0">
+        <v>70623</v>
+      </c>
+      <c r="C19" s="0">
+        <v>70861</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0">
+        <v>72017</v>
+      </c>
+      <c r="C20" s="0">
+        <v>72184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0">
+        <v>76132</v>
+      </c>
+      <c r="C21" s="0">
+        <v>75794</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0">
+        <v>75060</v>
+      </c>
+      <c r="C22" s="0">
+        <v>74721</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0">
+        <v>77698</v>
+      </c>
+      <c r="C23" s="0">
+        <v>77670</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0">
+        <v>79314</v>
+      </c>
+      <c r="C24" s="0">
+        <v>79910</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0">
+        <v>80447</v>
+      </c>
+      <c r="C25" s="0">
+        <v>80531</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0">
+        <v>83099</v>
+      </c>
+      <c r="C26" s="0">
+        <v>83317</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="0">
+        <v>82355</v>
+      </c>
+      <c r="C27" s="0">
+        <v>82425</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="0">
+        <v>84235</v>
+      </c>
+      <c r="C28" s="0">
+        <v>84236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0">
+        <v>83306</v>
+      </c>
+      <c r="C29" s="0">
+        <v>83413</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0">
+        <v>86692</v>
+      </c>
+      <c r="C30" s="0">
+        <v>86178</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0">
+        <v>85226</v>
+      </c>
+      <c r="C31" s="0">
+        <v>85069</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -868,7 +1587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -897,9 +1616,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -907,346 +1626,5092 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0">
-        <v>7203</v>
-      </c>
-      <c r="C2" s="0">
-        <v>7090</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0">
-        <v>14234</v>
+        <v>4036</v>
       </c>
       <c r="C3" s="0">
-        <v>14070</v>
+        <v>4080</v>
+      </c>
+      <c r="D3" s="0">
+        <v>645760</v>
+      </c>
+      <c r="E3" s="0">
+        <v>652800</v>
+      </c>
+      <c r="F3" s="0">
+        <v>55952.08064626368</v>
+      </c>
+      <c r="G3" s="0">
+        <v>56562.06368601482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0">
-        <v>21184</v>
+        <v>27830</v>
       </c>
       <c r="C4" s="0">
-        <v>21052</v>
+        <v>28184</v>
+      </c>
+      <c r="D4" s="0">
+        <v>278300</v>
+      </c>
+      <c r="E4" s="0">
+        <v>281840</v>
+      </c>
+      <c r="F4" s="0">
+        <v>24113.200470210337</v>
+      </c>
+      <c r="G4" s="0">
+        <v>24419.922459662528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0">
-        <v>28110</v>
+        <v>3100</v>
       </c>
       <c r="C5" s="0">
-        <v>28203</v>
+        <v>3188</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2015000</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2072200</v>
+      </c>
+      <c r="F5" s="0">
+        <v>174589.3399381303</v>
+      </c>
+      <c r="G5" s="0">
+        <v>179545.42442669655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0">
-        <v>34924</v>
+        <v>3311</v>
       </c>
       <c r="C6" s="0">
-        <v>35035</v>
+        <v>3219</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1688610</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1641690</v>
+      </c>
+      <c r="F6" s="0">
+        <v>146308.66226861635</v>
+      </c>
+      <c r="G6" s="0">
+        <v>142243.30529830145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0">
-        <v>41948</v>
+        <v>3693</v>
       </c>
       <c r="C7" s="0">
-        <v>41894</v>
+        <v>3617</v>
+      </c>
+      <c r="D7" s="0">
+        <v>886320</v>
+      </c>
+      <c r="E7" s="0">
+        <v>868080</v>
+      </c>
+      <c r="F7" s="0">
+        <v>76795.59164013824</v>
+      </c>
+      <c r="G7" s="0">
+        <v>75215.17870630384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0">
-        <v>48990</v>
+        <v>6936</v>
       </c>
       <c r="C8" s="0">
-        <v>49079</v>
+        <v>7136</v>
+      </c>
+      <c r="D8" s="0">
+        <v>693600</v>
+      </c>
+      <c r="E8" s="0">
+        <v>713600</v>
+      </c>
+      <c r="F8" s="0">
+        <v>60097.257444742754</v>
+      </c>
+      <c r="G8" s="0">
+        <v>61830.16567556002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0">
-        <v>55973</v>
+        <v>5394</v>
       </c>
       <c r="C9" s="0">
-        <v>56361</v>
+        <v>5298</v>
+      </c>
+      <c r="D9" s="0">
+        <v>647280</v>
+      </c>
+      <c r="E9" s="0">
+        <v>635760</v>
+      </c>
+      <c r="F9" s="0">
+        <v>56083.4507386357</v>
+      </c>
+      <c r="G9" s="0">
+        <v>55085.30256086243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0">
-        <v>63042</v>
+        <v>3168</v>
       </c>
       <c r="C10" s="0">
-        <v>63391</v>
+        <v>3075</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2090880</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2029500</v>
+      </c>
+      <c r="F10" s="0">
+        <v>181162.6827078369</v>
+      </c>
+      <c r="G10" s="0">
+        <v>175844.46001470913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0">
-        <v>70134</v>
+        <v>3214</v>
       </c>
       <c r="C11" s="0">
-        <v>70333</v>
+        <v>3300</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1607000</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1650000</v>
+      </c>
+      <c r="F11" s="0">
+        <v>139237.40780306095</v>
+      </c>
+      <c r="G11" s="0">
+        <v>142963.11317675828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0">
-        <v>76932</v>
+        <v>28225</v>
       </c>
       <c r="C12" s="0">
-        <v>77435</v>
+        <v>28563</v>
+      </c>
+      <c r="D12" s="0">
+        <v>564500</v>
+      </c>
+      <c r="E12" s="0">
+        <v>571260</v>
+      </c>
+      <c r="F12" s="0">
+        <v>48910.60251076384</v>
+      </c>
+      <c r="G12" s="0">
+        <v>49496.31672329309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0">
-        <v>84478</v>
+        <v>6057</v>
       </c>
       <c r="C13" s="0">
-        <v>84324</v>
+        <v>5894</v>
+      </c>
+      <c r="D13" s="0">
+        <v>666270</v>
+      </c>
+      <c r="E13" s="0">
+        <v>648340</v>
+      </c>
+      <c r="F13" s="0">
+        <v>57729.016527110005</v>
+      </c>
+      <c r="G13" s="0">
+        <v>56175.47026758898</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0">
-        <v>91161</v>
+        <v>3661</v>
       </c>
       <c r="C14" s="0">
-        <v>91327</v>
+        <v>3571</v>
+      </c>
+      <c r="D14" s="0">
+        <v>988470</v>
+      </c>
+      <c r="E14" s="0">
+        <v>964170</v>
+      </c>
+      <c r="F14" s="0">
+        <v>85646.06980031633</v>
+      </c>
+      <c r="G14" s="0">
+        <v>83540.59417015285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0">
-        <v>98372</v>
+        <v>3305</v>
       </c>
       <c r="C15" s="0">
-        <v>97983</v>
+        <v>3214</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1322000</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1285600</v>
+      </c>
+      <c r="F15" s="0">
+        <v>114545.52751780493</v>
+      </c>
+      <c r="G15" s="0">
+        <v>111391.62645755676</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0">
-        <v>105415</v>
+        <v>3307</v>
       </c>
       <c r="C16" s="0">
-        <v>105280</v>
+        <v>3274</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1388940</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1375080</v>
+      </c>
+      <c r="F16" s="0">
+        <v>120344.22570844201</v>
+      </c>
+      <c r="G16" s="0">
+        <v>119143.3308041848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B17" s="0">
-        <v>112177</v>
+        <v>3260</v>
       </c>
       <c r="C17" s="0">
-        <v>112439</v>
+        <v>3301</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1793000</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1815550</v>
+      </c>
+      <c r="F17" s="0">
+        <v>155355.653121012</v>
+      </c>
+      <c r="G17" s="0">
+        <v>157309.51256210447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0">
-        <v>119134</v>
+        <v>19733</v>
       </c>
       <c r="C18" s="0">
-        <v>119452</v>
+        <v>19763</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1183980</v>
+      </c>
+      <c r="E18" s="0">
+        <v>1185780</v>
+      </c>
+      <c r="F18" s="0">
+        <v>102586.0472582473</v>
+      </c>
+      <c r="G18" s="0">
+        <v>102742.00841051749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0">
-        <v>126288</v>
+        <v>3329</v>
       </c>
       <c r="C19" s="0">
-        <v>126819</v>
+        <v>3368</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1198440</v>
+      </c>
+      <c r="E19" s="0">
+        <v>1212480</v>
+      </c>
+      <c r="F19" s="0">
+        <v>103837.58829302186</v>
+      </c>
+      <c r="G19" s="0">
+        <v>105054.0695016214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0">
-        <v>133431</v>
+        <v>3033</v>
       </c>
       <c r="C20" s="0">
-        <v>133667</v>
+        <v>3161</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1910790</v>
+      </c>
+      <c r="E20" s="0">
+        <v>1991430</v>
+      </c>
+      <c r="F20" s="0">
+        <v>165559.86755167897</v>
+      </c>
+      <c r="G20" s="0">
+        <v>172546.89790005184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B21" s="0">
-        <v>141014</v>
+        <v>3059</v>
       </c>
       <c r="C21" s="0">
-        <v>140222</v>
+        <v>3149</v>
+      </c>
+      <c r="D21" s="0">
+        <v>2141300</v>
+      </c>
+      <c r="E21" s="0">
+        <v>2204300</v>
+      </c>
+      <c r="F21" s="0">
+        <v>185533.5944489495</v>
+      </c>
+      <c r="G21" s="0">
+        <v>190992.24874787248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B22" s="0">
-        <v>147490</v>
+        <v>3449</v>
       </c>
       <c r="C22" s="0">
-        <v>147317</v>
+        <v>3488</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1172660</v>
+      </c>
+      <c r="E22" s="0">
+        <v>1185920</v>
+      </c>
+      <c r="F22" s="0">
+        <v>101603.15644913651</v>
+      </c>
+      <c r="G22" s="0">
+        <v>102752.04688158544</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B23" s="0">
-        <v>154494</v>
+        <v>28338</v>
       </c>
       <c r="C23" s="0">
-        <v>154822</v>
+        <v>28022</v>
+      </c>
+      <c r="D23" s="0">
+        <v>1133520</v>
+      </c>
+      <c r="E23" s="0">
+        <v>1120880</v>
+      </c>
+      <c r="F23" s="0">
+        <v>98213.25660489431</v>
+      </c>
+      <c r="G23" s="0">
+        <v>97118.07031485456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B24" s="0">
-        <v>161047</v>
+        <v>3772</v>
       </c>
       <c r="C24" s="0">
-        <v>161970</v>
+        <v>4000</v>
+      </c>
+      <c r="D24" s="0">
+        <v>716680</v>
+      </c>
+      <c r="E24" s="0">
+        <v>760000</v>
+      </c>
+      <c r="F24" s="0">
+        <v>62097.12575504709</v>
+      </c>
+      <c r="G24" s="0">
+        <v>65850.61055678377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0">
-        <v>168617</v>
+        <v>3196</v>
       </c>
       <c r="C25" s="0">
-        <v>168658</v>
+        <v>3165</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2237200</v>
+      </c>
+      <c r="E25" s="0">
+        <v>2215500</v>
+      </c>
+      <c r="F25" s="0">
+        <v>193841.72884542585</v>
+      </c>
+      <c r="G25" s="0">
+        <v>191961.53685725055</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B26" s="0">
-        <v>175890</v>
+        <v>3196</v>
       </c>
       <c r="C26" s="0">
-        <v>175878</v>
+        <v>3271</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1949560</v>
+      </c>
+      <c r="E26" s="0">
+        <v>1995310</v>
+      </c>
+      <c r="F26" s="0">
+        <v>168922.05024204528</v>
+      </c>
+      <c r="G26" s="0">
+        <v>172886.11587663647</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0">
-        <v>182795</v>
+        <v>3297</v>
       </c>
       <c r="C27" s="0">
-        <v>182663</v>
+        <v>3394</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1120980</v>
+      </c>
+      <c r="E27" s="0">
+        <v>1153960</v>
+      </c>
+      <c r="F27" s="0">
+        <v>97126.81999748693</v>
+      </c>
+      <c r="G27" s="0">
+        <v>99984.35761949368</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B28" s="0">
-        <v>189394</v>
+        <v>3230</v>
       </c>
       <c r="C28" s="0">
-        <v>190167</v>
+        <v>3272</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1841100</v>
+      </c>
+      <c r="E28" s="0">
+        <v>1865040</v>
+      </c>
+      <c r="F28" s="0">
+        <v>159520.40905657638</v>
+      </c>
+      <c r="G28" s="0">
+        <v>161594.66824554736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B29" s="0">
-        <v>196439</v>
+        <v>3588</v>
       </c>
       <c r="C29" s="0">
-        <v>196685</v>
+        <v>3530</v>
+      </c>
+      <c r="D29" s="0">
+        <v>968760</v>
+      </c>
+      <c r="E29" s="0">
+        <v>953100</v>
+      </c>
+      <c r="F29" s="0">
+        <v>83937.379018455</v>
+      </c>
+      <c r="G29" s="0">
+        <v>82580.53175450004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B30" s="0">
-        <v>204184</v>
+        <v>4018</v>
       </c>
       <c r="C30" s="0">
-        <v>203482</v>
+        <v>4027</v>
+      </c>
+      <c r="D30" s="0">
+        <v>642880</v>
+      </c>
+      <c r="E30" s="0">
+        <v>644320</v>
+      </c>
+      <c r="F30" s="0">
+        <v>55703.16859108746</v>
+      </c>
+      <c r="G30" s="0">
+        <v>55827.93925244131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="0">
+        <v>3183</v>
+      </c>
+      <c r="C31" s="0">
+        <v>3206</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2100780</v>
+      </c>
+      <c r="E31" s="0">
+        <v>2115960</v>
+      </c>
+      <c r="F31" s="0">
+        <v>182022.08047564342</v>
+      </c>
+      <c r="G31" s="0">
+        <v>183337.3515566801</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="0">
+        <v>3436</v>
+      </c>
+      <c r="C32" s="0">
+        <v>3392</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1202600</v>
+      </c>
+      <c r="E32" s="0">
+        <v>1187200</v>
+      </c>
+      <c r="F32" s="0">
+        <v>104199.02980221636</v>
+      </c>
+      <c r="G32" s="0">
+        <v>102864.6999677293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="0">
+        <v>4099</v>
+      </c>
+      <c r="C33" s="0">
+        <v>4085</v>
+      </c>
+      <c r="D33" s="0">
+        <v>655840</v>
+      </c>
+      <c r="E33" s="0">
+        <v>653600</v>
+      </c>
+      <c r="F33" s="0">
+        <v>56824.79482863049</v>
+      </c>
+      <c r="G33" s="0">
+        <v>56630.71160647854</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="0">
+        <v>3694</v>
+      </c>
+      <c r="C34" s="0">
+        <v>3601</v>
+      </c>
+      <c r="D34" s="0">
+        <v>886560</v>
+      </c>
+      <c r="E34" s="0">
+        <v>864240</v>
+      </c>
+      <c r="F34" s="0">
+        <v>76815.5206497164</v>
+      </c>
+      <c r="G34" s="0">
+        <v>74881.616096272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="0">
+        <v>3447</v>
+      </c>
+      <c r="C35" s="0">
+        <v>3236</v>
+      </c>
+      <c r="D35" s="0">
+        <v>1482210</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1391480</v>
+      </c>
+      <c r="F35" s="0">
+        <v>128426.44384380316</v>
+      </c>
+      <c r="G35" s="0">
+        <v>120565.12105556921</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="0">
+        <v>3217</v>
+      </c>
+      <c r="C36" s="0">
+        <v>3224</v>
+      </c>
+      <c r="D36" s="0">
+        <v>1833690</v>
+      </c>
+      <c r="E36" s="0">
+        <v>1837680</v>
+      </c>
+      <c r="F36" s="0">
+        <v>158881.81394406664</v>
+      </c>
+      <c r="G36" s="0">
+        <v>159227.53128867605</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0">
+        <v>3179</v>
+      </c>
+      <c r="C37" s="0">
+        <v>3150</v>
+      </c>
+      <c r="D37" s="0">
+        <v>1716660</v>
+      </c>
+      <c r="E37" s="0">
+        <v>1701000</v>
+      </c>
+      <c r="F37" s="0">
+        <v>148742.43114889358</v>
+      </c>
+      <c r="G37" s="0">
+        <v>147385.54832306222</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="0">
+        <v>3307</v>
+      </c>
+      <c r="C38" s="0">
+        <v>3368</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1554290</v>
+      </c>
+      <c r="E38" s="0">
+        <v>1582960</v>
+      </c>
+      <c r="F38" s="0">
+        <v>134669.97706576055</v>
+      </c>
+      <c r="G38" s="0">
+        <v>137154.06191638391</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="0">
+        <v>3590</v>
+      </c>
+      <c r="C39" s="0">
+        <v>3606</v>
+      </c>
+      <c r="D39" s="0">
+        <v>969300</v>
+      </c>
+      <c r="E39" s="0">
+        <v>973620</v>
+      </c>
+      <c r="F39" s="0">
+        <v>83984.77746523518</v>
+      </c>
+      <c r="G39" s="0">
+        <v>84359.08288012202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="0">
+        <v>3229</v>
+      </c>
+      <c r="C40" s="0">
+        <v>3223</v>
+      </c>
+      <c r="D40" s="0">
+        <v>1517630</v>
+      </c>
+      <c r="E40" s="0">
+        <v>1514810</v>
+      </c>
+      <c r="F40" s="0">
+        <v>131493.70491853866</v>
+      </c>
+      <c r="G40" s="0">
+        <v>131249.3685204243</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="0">
+        <v>3390</v>
+      </c>
+      <c r="C41" s="0">
+        <v>3312</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1152600</v>
+      </c>
+      <c r="E41" s="0">
+        <v>1126080</v>
+      </c>
+      <c r="F41" s="0">
+        <v>99867.9668711378</v>
+      </c>
+      <c r="G41" s="0">
+        <v>97570.11984578418</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="0">
+        <v>3464</v>
+      </c>
+      <c r="C42" s="0">
+        <v>3376</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1143120</v>
+      </c>
+      <c r="E42" s="0">
+        <v>1114080</v>
+      </c>
+      <c r="F42" s="0">
+        <v>99044.28710977985</v>
+      </c>
+      <c r="G42" s="0">
+        <v>96528.15048574387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="0">
+        <v>3221</v>
+      </c>
+      <c r="C43" s="0">
+        <v>3254</v>
+      </c>
+      <c r="D43" s="0">
+        <v>1610500</v>
+      </c>
+      <c r="E43" s="0">
+        <v>1627000</v>
+      </c>
+      <c r="F43" s="0">
+        <v>139541.50580136426</v>
+      </c>
+      <c r="G43" s="0">
+        <v>140971.14556896596</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="0">
+        <v>28241</v>
+      </c>
+      <c r="C44" s="0">
+        <v>28136</v>
+      </c>
+      <c r="D44" s="0">
+        <v>282410</v>
+      </c>
+      <c r="E44" s="0">
+        <v>281360</v>
+      </c>
+      <c r="F44" s="0">
+        <v>24469.190170459384</v>
+      </c>
+      <c r="G44" s="0">
+        <v>24378.213754330412</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="0">
+        <v>3331</v>
+      </c>
+      <c r="C45" s="0">
+        <v>3381</v>
+      </c>
+      <c r="D45" s="0">
+        <v>1065920</v>
+      </c>
+      <c r="E45" s="0">
+        <v>1081920</v>
+      </c>
+      <c r="F45" s="0">
+        <v>92356.79608179527</v>
+      </c>
+      <c r="G45" s="0">
+        <v>93743.11844867902</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="0">
+        <v>3293</v>
+      </c>
+      <c r="C46" s="0">
+        <v>3270</v>
+      </c>
+      <c r="D46" s="0">
+        <v>1350130</v>
+      </c>
+      <c r="E46" s="0">
+        <v>1340700</v>
+      </c>
+      <c r="F46" s="0">
+        <v>116982.77159216235</v>
+      </c>
+      <c r="G46" s="0">
+        <v>116165.70394970266</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="0">
+        <v>3309</v>
+      </c>
+      <c r="C47" s="0">
+        <v>3210</v>
+      </c>
+      <c r="D47" s="0">
+        <v>1522140</v>
+      </c>
+      <c r="E47" s="0">
+        <v>1476600</v>
+      </c>
+      <c r="F47" s="0">
+        <v>131886.6388618059</v>
+      </c>
+      <c r="G47" s="0">
+        <v>127940.80107174281</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="0">
+        <v>3089</v>
+      </c>
+      <c r="C48" s="0">
+        <v>3087</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2100520</v>
+      </c>
+      <c r="E48" s="0">
+        <v>2099160</v>
+      </c>
+      <c r="F48" s="0">
+        <v>181999.23859191095</v>
+      </c>
+      <c r="G48" s="0">
+        <v>181881.40159703113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="0">
+        <v>3182</v>
+      </c>
+      <c r="C49" s="0">
+        <v>3340</v>
+      </c>
+      <c r="D49" s="0">
+        <v>1877380</v>
+      </c>
+      <c r="E49" s="0">
+        <v>1970600</v>
+      </c>
+      <c r="F49" s="0">
+        <v>162664.78531319785</v>
+      </c>
+      <c r="G49" s="0">
+        <v>170741.79225206815</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="0">
+        <v>3252</v>
+      </c>
+      <c r="C50" s="0">
+        <v>3222</v>
+      </c>
+      <c r="D50" s="0">
+        <v>1886160</v>
+      </c>
+      <c r="E50" s="0">
+        <v>1868760</v>
+      </c>
+      <c r="F50" s="0">
+        <v>163426.33890247677</v>
+      </c>
+      <c r="G50" s="0">
+        <v>161918.7158498709</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="0">
+        <v>7059</v>
+      </c>
+      <c r="C51" s="0">
+        <v>7135</v>
+      </c>
+      <c r="D51" s="0">
+        <v>141180</v>
+      </c>
+      <c r="E51" s="0">
+        <v>142700</v>
+      </c>
+      <c r="F51" s="0">
+        <v>12232.569562151713</v>
+      </c>
+      <c r="G51" s="0">
+        <v>12364.270268586553</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="0">
+        <v>3052</v>
+      </c>
+      <c r="C52" s="0">
+        <v>3035</v>
+      </c>
+      <c r="D52" s="0">
+        <v>2014320</v>
+      </c>
+      <c r="E52" s="0">
+        <v>2003100</v>
+      </c>
+      <c r="F52" s="0">
+        <v>174531.4107441856</v>
+      </c>
+      <c r="G52" s="0">
+        <v>173559.2501994113</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="0">
+        <v>3116</v>
+      </c>
+      <c r="C53" s="0">
+        <v>3070</v>
+      </c>
+      <c r="D53" s="0">
+        <v>2025400</v>
+      </c>
+      <c r="E53" s="0">
+        <v>1995500</v>
+      </c>
+      <c r="F53" s="0">
+        <v>175490.8638868508</v>
+      </c>
+      <c r="G53" s="0">
+        <v>172900.17719275737</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="0">
+        <v>3204</v>
+      </c>
+      <c r="C54" s="0">
+        <v>3328</v>
+      </c>
+      <c r="D54" s="0">
+        <v>1377720</v>
+      </c>
+      <c r="E54" s="0">
+        <v>1431040</v>
+      </c>
+      <c r="F54" s="0">
+        <v>119373.70859657596</v>
+      </c>
+      <c r="G54" s="0">
+        <v>123993.66485936478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="0">
+        <v>3422</v>
+      </c>
+      <c r="C55" s="0">
+        <v>3236</v>
+      </c>
+      <c r="D55" s="0">
+        <v>1266140</v>
+      </c>
+      <c r="E55" s="0">
+        <v>1197320</v>
+      </c>
+      <c r="F55" s="0">
+        <v>109705.2465894941</v>
+      </c>
+      <c r="G55" s="0">
+        <v>103742.30799637722</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="0">
+        <v>8577</v>
+      </c>
+      <c r="C56" s="0">
+        <v>8499</v>
+      </c>
+      <c r="D56" s="0">
+        <v>771930</v>
+      </c>
+      <c r="E56" s="0">
+        <v>764910</v>
+      </c>
+      <c r="F56" s="0">
+        <v>66883.78484247092</v>
+      </c>
+      <c r="G56" s="0">
+        <v>66275.53776100739</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="0">
+        <v>3253</v>
+      </c>
+      <c r="C57" s="0">
+        <v>3211</v>
+      </c>
+      <c r="D57" s="0">
+        <v>1268670</v>
+      </c>
+      <c r="E57" s="0">
+        <v>1252290</v>
+      </c>
+      <c r="F57" s="0">
+        <v>109923.1524186508</v>
+      </c>
+      <c r="G57" s="0">
+        <v>108503.91712766301</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="0">
+        <v>3249</v>
+      </c>
+      <c r="C58" s="0">
+        <v>3273</v>
+      </c>
+      <c r="D58" s="0">
+        <v>1656990</v>
+      </c>
+      <c r="E58" s="0">
+        <v>1669230</v>
+      </c>
+      <c r="F58" s="0">
+        <v>143567.4662833441</v>
+      </c>
+      <c r="G58" s="0">
+        <v>144627.98311646207</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="0">
+        <v>3260</v>
+      </c>
+      <c r="C59" s="0">
+        <v>3359</v>
+      </c>
+      <c r="D59" s="0">
+        <v>1760400</v>
+      </c>
+      <c r="E59" s="0">
+        <v>1813860</v>
+      </c>
+      <c r="F59" s="0">
+        <v>152530.91916848053</v>
+      </c>
+      <c r="G59" s="0">
+        <v>157162.9930941491</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="0">
+        <v>3224</v>
+      </c>
+      <c r="C60" s="0">
+        <v>3267</v>
+      </c>
+      <c r="D60" s="0">
+        <v>1676480</v>
+      </c>
+      <c r="E60" s="0">
+        <v>1698840</v>
+      </c>
+      <c r="F60" s="0">
+        <v>145256.51812070273</v>
+      </c>
+      <c r="G60" s="0">
+        <v>147193.8724256625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="0">
+        <v>3446</v>
+      </c>
+      <c r="C61" s="0">
+        <v>3513</v>
+      </c>
+      <c r="D61" s="0">
+        <v>999340</v>
+      </c>
+      <c r="E61" s="0">
+        <v>1018770</v>
+      </c>
+      <c r="F61" s="0">
+        <v>86588.04951925858</v>
+      </c>
+      <c r="G61" s="0">
+        <v>88271.56644258717</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="0">
+        <v>3499</v>
+      </c>
+      <c r="C62" s="0">
+        <v>3318</v>
+      </c>
+      <c r="D62" s="0">
+        <v>1189660</v>
+      </c>
+      <c r="E62" s="0">
+        <v>1128120</v>
+      </c>
+      <c r="F62" s="0">
+        <v>103076.83137711498</v>
+      </c>
+      <c r="G62" s="0">
+        <v>97744.76322071091</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="0">
+        <v>4048</v>
+      </c>
+      <c r="C63" s="0">
+        <v>3996</v>
+      </c>
+      <c r="D63" s="0">
+        <v>688160</v>
+      </c>
+      <c r="E63" s="0">
+        <v>679320</v>
+      </c>
+      <c r="F63" s="0">
+        <v>59625.83200661446</v>
+      </c>
+      <c r="G63" s="0">
+        <v>58859.88752431605</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="0">
+        <v>3301</v>
+      </c>
+      <c r="C64" s="0">
+        <v>3274</v>
+      </c>
+      <c r="D64" s="0">
+        <v>1749530</v>
+      </c>
+      <c r="E64" s="0">
+        <v>1735220</v>
+      </c>
+      <c r="F64" s="0">
+        <v>151586.4616690615</v>
+      </c>
+      <c r="G64" s="0">
+        <v>150346.58452120793</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="0">
+        <v>3121</v>
+      </c>
+      <c r="C65" s="0">
+        <v>3166</v>
+      </c>
+      <c r="D65" s="0">
+        <v>1466870</v>
+      </c>
+      <c r="E65" s="0">
+        <v>1488020</v>
+      </c>
+      <c r="F65" s="0">
+        <v>127096.8378057936</v>
+      </c>
+      <c r="G65" s="0">
+        <v>128929.3779215452</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="0">
+        <v>3225</v>
+      </c>
+      <c r="C66" s="0">
+        <v>3263</v>
+      </c>
+      <c r="D66" s="0">
+        <v>1451250</v>
+      </c>
+      <c r="E66" s="0">
+        <v>1468350</v>
+      </c>
+      <c r="F66" s="0">
+        <v>125745.019880794</v>
+      </c>
+      <c r="G66" s="0">
+        <v>127226.66662667622</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="0">
+        <v>3358</v>
+      </c>
+      <c r="C67" s="0">
+        <v>3249</v>
+      </c>
+      <c r="D67" s="0">
+        <v>1443940</v>
+      </c>
+      <c r="E67" s="0">
+        <v>1397070</v>
+      </c>
+      <c r="F67" s="0">
+        <v>125109.83108605725</v>
+      </c>
+      <c r="G67" s="0">
+        <v>121048.79130393094</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="0">
+        <v>27930</v>
+      </c>
+      <c r="C68" s="0">
+        <v>28430</v>
+      </c>
+      <c r="D68" s="0">
+        <v>279300</v>
+      </c>
+      <c r="E68" s="0">
+        <v>284300</v>
+      </c>
+      <c r="F68" s="0">
+        <v>24199.8191108223</v>
+      </c>
+      <c r="G68" s="0">
+        <v>24633.041794510485</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="0">
+        <v>4845</v>
+      </c>
+      <c r="C69" s="0">
+        <v>4876</v>
+      </c>
+      <c r="D69" s="0">
+        <v>629850</v>
+      </c>
+      <c r="E69" s="0">
+        <v>633880</v>
+      </c>
+      <c r="F69" s="0">
+        <v>54573.814128700134</v>
+      </c>
+      <c r="G69" s="0">
+        <v>54922.996427562815</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="0">
+        <v>3262</v>
+      </c>
+      <c r="C70" s="0">
+        <v>3237</v>
+      </c>
+      <c r="D70" s="0">
+        <v>1598380</v>
+      </c>
+      <c r="E70" s="0">
+        <v>1586130</v>
+      </c>
+      <c r="F70" s="0">
+        <v>138493.9523732178</v>
+      </c>
+      <c r="G70" s="0">
+        <v>137432.5333636131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="0">
+        <v>3076</v>
+      </c>
+      <c r="C71" s="0">
+        <v>3119</v>
+      </c>
+      <c r="D71" s="0">
+        <v>2091680</v>
+      </c>
+      <c r="E71" s="0">
+        <v>2120920</v>
+      </c>
+      <c r="F71" s="0">
+        <v>181229.3476545136</v>
+      </c>
+      <c r="G71" s="0">
+        <v>183762.78782003507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="0">
+        <v>3298</v>
+      </c>
+      <c r="C72" s="0">
+        <v>3327</v>
+      </c>
+      <c r="D72" s="0">
+        <v>1253240</v>
+      </c>
+      <c r="E72" s="0">
+        <v>1264260</v>
+      </c>
+      <c r="F72" s="0">
+        <v>108588.3425955567</v>
+      </c>
+      <c r="G72" s="0">
+        <v>109543.18247890151</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="0">
+        <v>4412</v>
+      </c>
+      <c r="C73" s="0">
+        <v>4309</v>
+      </c>
+      <c r="D73" s="0">
+        <v>661800</v>
+      </c>
+      <c r="E73" s="0">
+        <v>646350</v>
+      </c>
+      <c r="F73" s="0">
+        <v>57341.448998755666</v>
+      </c>
+      <c r="G73" s="0">
+        <v>56002.78869801409</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="0">
+        <v>3653</v>
+      </c>
+      <c r="C74" s="0">
+        <v>3806</v>
+      </c>
+      <c r="D74" s="0">
+        <v>803660</v>
+      </c>
+      <c r="E74" s="0">
+        <v>837320</v>
+      </c>
+      <c r="F74" s="0">
+        <v>69631.98869103685</v>
+      </c>
+      <c r="G74" s="0">
+        <v>72548.4119786713</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="0">
+        <v>19911</v>
+      </c>
+      <c r="C75" s="0">
+        <v>19673</v>
+      </c>
+      <c r="D75" s="0">
+        <v>1194660</v>
+      </c>
+      <c r="E75" s="0">
+        <v>1180380</v>
+      </c>
+      <c r="F75" s="0">
+        <v>103511.12015822974</v>
+      </c>
+      <c r="G75" s="0">
+        <v>102273.831895578</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="0">
+        <v>3448</v>
+      </c>
+      <c r="C76" s="0">
+        <v>3445</v>
+      </c>
+      <c r="D76" s="0">
+        <v>1034400</v>
+      </c>
+      <c r="E76" s="0">
+        <v>1033500</v>
+      </c>
+      <c r="F76" s="0">
+        <v>89625.92427388682</v>
+      </c>
+      <c r="G76" s="0">
+        <v>89547.94348130513</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="0">
+        <v>3146</v>
+      </c>
+      <c r="C77" s="0">
+        <v>3211</v>
+      </c>
+      <c r="D77" s="0">
+        <v>1384240</v>
+      </c>
+      <c r="E77" s="0">
+        <v>1412840</v>
+      </c>
+      <c r="F77" s="0">
+        <v>119937.27918077198</v>
+      </c>
+      <c r="G77" s="0">
+        <v>122415.32213905241</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="0">
+        <v>3187</v>
+      </c>
+      <c r="C78" s="0">
+        <v>3132</v>
+      </c>
+      <c r="D78" s="0">
+        <v>1752850</v>
+      </c>
+      <c r="E78" s="0">
+        <v>1722600</v>
+      </c>
+      <c r="F78" s="0">
+        <v>151876.65017828922</v>
+      </c>
+      <c r="G78" s="0">
+        <v>149255.62232770686</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="0">
+        <v>3232</v>
+      </c>
+      <c r="C79" s="0">
+        <v>3294</v>
+      </c>
+      <c r="D79" s="0">
+        <v>1325120</v>
+      </c>
+      <c r="E79" s="0">
+        <v>1350540</v>
+      </c>
+      <c r="F79" s="0">
+        <v>114816.07178468436</v>
+      </c>
+      <c r="G79" s="0">
+        <v>117018.6078152074</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="0">
+        <v>4331</v>
+      </c>
+      <c r="C80" s="0">
+        <v>4301</v>
+      </c>
+      <c r="D80" s="0">
+        <v>649650</v>
+      </c>
+      <c r="E80" s="0">
+        <v>645150</v>
+      </c>
+      <c r="F80" s="0">
+        <v>56289.61908692486</v>
+      </c>
+      <c r="G80" s="0">
+        <v>55899.711773923766</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="0">
+        <v>4881</v>
+      </c>
+      <c r="C81" s="0">
+        <v>5000</v>
+      </c>
+      <c r="D81" s="0">
+        <v>634530</v>
+      </c>
+      <c r="E81" s="0">
+        <v>650000</v>
+      </c>
+      <c r="F81" s="0">
+        <v>54978.963086282674</v>
+      </c>
+      <c r="G81" s="0">
+        <v>56319.36394825105</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="0">
+        <v>3866</v>
+      </c>
+      <c r="C82" s="0">
+        <v>4029</v>
+      </c>
+      <c r="D82" s="0">
+        <v>657220</v>
+      </c>
+      <c r="E82" s="0">
+        <v>684930</v>
+      </c>
+      <c r="F82" s="0">
+        <v>56944.13465056092</v>
+      </c>
+      <c r="G82" s="0">
+        <v>59345.038413634225</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="0">
+        <v>3971</v>
+      </c>
+      <c r="C83" s="0">
+        <v>4020</v>
+      </c>
+      <c r="D83" s="0">
+        <v>675070</v>
+      </c>
+      <c r="E83" s="0">
+        <v>683400</v>
+      </c>
+      <c r="F83" s="0">
+        <v>58490.709781426325</v>
+      </c>
+      <c r="G83" s="0">
+        <v>59212.453619071726</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="0">
+        <v>3238</v>
+      </c>
+      <c r="C84" s="0">
+        <v>3191</v>
+      </c>
+      <c r="D84" s="0">
+        <v>1942800</v>
+      </c>
+      <c r="E84" s="0">
+        <v>1914600</v>
+      </c>
+      <c r="F84" s="0">
+        <v>168333.86544253523</v>
+      </c>
+      <c r="G84" s="0">
+        <v>165890.47703123224</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="0">
+        <v>3543</v>
+      </c>
+      <c r="C85" s="0">
+        <v>3578</v>
+      </c>
+      <c r="D85" s="0">
+        <v>1062900</v>
+      </c>
+      <c r="E85" s="0">
+        <v>1073400</v>
+      </c>
+      <c r="F85" s="0">
+        <v>92093.95754243052</v>
+      </c>
+      <c r="G85" s="0">
+        <v>93003.72003579352</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="0">
+        <v>3164</v>
+      </c>
+      <c r="C86" s="0">
+        <v>3107</v>
+      </c>
+      <c r="D86" s="0">
+        <v>2214800</v>
+      </c>
+      <c r="E86" s="0">
+        <v>2174900</v>
+      </c>
+      <c r="F86" s="0">
+        <v>191901.8172562386</v>
+      </c>
+      <c r="G86" s="0">
+        <v>188444.67326647704</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="0">
+        <v>28652</v>
+      </c>
+      <c r="C87" s="0">
+        <v>28051</v>
+      </c>
+      <c r="D87" s="0">
+        <v>859560</v>
+      </c>
+      <c r="E87" s="0">
+        <v>841530</v>
+      </c>
+      <c r="F87" s="0">
+        <v>74476.55113820227</v>
+      </c>
+      <c r="G87" s="0">
+        <v>72914.34231389473</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="0">
+        <v>5369</v>
+      </c>
+      <c r="C88" s="0">
+        <v>5293</v>
+      </c>
+      <c r="D88" s="0">
+        <v>536900</v>
+      </c>
+      <c r="E88" s="0">
+        <v>529300</v>
+      </c>
+      <c r="F88" s="0">
+        <v>46519.441172893654</v>
+      </c>
+      <c r="G88" s="0">
+        <v>45860.94284375603</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="0">
+        <v>4273</v>
+      </c>
+      <c r="C89" s="0">
+        <v>4254</v>
+      </c>
+      <c r="D89" s="0">
+        <v>640950</v>
+      </c>
+      <c r="E89" s="0">
+        <v>638100</v>
+      </c>
+      <c r="F89" s="0">
+        <v>55534.356020679</v>
+      </c>
+      <c r="G89" s="0">
+        <v>55287.4211354946</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="0">
+        <v>3329</v>
+      </c>
+      <c r="C90" s="0">
+        <v>3239</v>
+      </c>
+      <c r="D90" s="0">
+        <v>1331600</v>
+      </c>
+      <c r="E90" s="0">
+        <v>1295600</v>
+      </c>
+      <c r="F90" s="0">
+        <v>115375.24642308705</v>
+      </c>
+      <c r="G90" s="0">
+        <v>112256.05982708892</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="0">
+        <v>3175</v>
+      </c>
+      <c r="C91" s="0">
+        <v>3114</v>
+      </c>
+      <c r="D91" s="0">
+        <v>1968500</v>
+      </c>
+      <c r="E91" s="0">
+        <v>1930680</v>
+      </c>
+      <c r="F91" s="0">
+        <v>170559.86636034935</v>
+      </c>
+      <c r="G91" s="0">
+        <v>167282.9681405127</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="0">
+        <v>3380</v>
+      </c>
+      <c r="C92" s="0">
+        <v>3264</v>
+      </c>
+      <c r="D92" s="0">
+        <v>1216800</v>
+      </c>
+      <c r="E92" s="0">
+        <v>1175040</v>
+      </c>
+      <c r="F92" s="0">
+        <v>105429.94065206489</v>
+      </c>
+      <c r="G92" s="0">
+        <v>101811.63499655024</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="0">
+        <v>28434</v>
+      </c>
+      <c r="C93" s="0">
+        <v>27994</v>
+      </c>
+      <c r="D93" s="0">
+        <v>284340</v>
+      </c>
+      <c r="E93" s="0">
+        <v>279940</v>
+      </c>
+      <c r="F93" s="0">
+        <v>24636.467388948182</v>
+      </c>
+      <c r="G93" s="0">
+        <v>24255.23204917407</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="0">
+        <v>28213</v>
+      </c>
+      <c r="C94" s="0">
+        <v>28262</v>
+      </c>
+      <c r="D94" s="0">
+        <v>282130</v>
+      </c>
+      <c r="E94" s="0">
+        <v>282620</v>
+      </c>
+      <c r="F94" s="0">
+        <v>24444.935725553878</v>
+      </c>
+      <c r="G94" s="0">
+        <v>24487.391396717958</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="0">
+        <v>6974</v>
+      </c>
+      <c r="C95" s="0">
+        <v>6991</v>
+      </c>
+      <c r="D95" s="0">
+        <v>697400</v>
+      </c>
+      <c r="E95" s="0">
+        <v>699100</v>
+      </c>
+      <c r="F95" s="0">
+        <v>60426.087287982555</v>
+      </c>
+      <c r="G95" s="0">
+        <v>60573.38345716749</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="0">
+        <v>3267</v>
+      </c>
+      <c r="C96" s="0">
+        <v>3197</v>
+      </c>
+      <c r="D96" s="0">
+        <v>2058210</v>
+      </c>
+      <c r="E96" s="0">
+        <v>2014110</v>
+      </c>
+      <c r="F96" s="0">
+        <v>178334.27051422396</v>
+      </c>
+      <c r="G96" s="0">
+        <v>174513.21176430178</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="0">
+        <v>8412</v>
+      </c>
+      <c r="C97" s="0">
+        <v>8696</v>
+      </c>
+      <c r="D97" s="0">
+        <v>757080</v>
+      </c>
+      <c r="E97" s="0">
+        <v>782640</v>
+      </c>
+      <c r="F97" s="0">
+        <v>65597.1946724629</v>
+      </c>
+      <c r="G97" s="0">
+        <v>67811.84080738675</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="0">
+        <v>3094</v>
+      </c>
+      <c r="C98" s="0">
+        <v>3062</v>
+      </c>
+      <c r="D98" s="0">
+        <v>2103920</v>
+      </c>
+      <c r="E98" s="0">
+        <v>2082160</v>
+      </c>
+      <c r="F98" s="0">
+        <v>182295.14101063056</v>
+      </c>
+      <c r="G98" s="0">
+        <v>180409.73554445727</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="0">
+        <v>4213</v>
+      </c>
+      <c r="C99" s="0">
+        <v>4046</v>
+      </c>
+      <c r="D99" s="0">
+        <v>674080</v>
+      </c>
+      <c r="E99" s="0">
+        <v>647360</v>
+      </c>
+      <c r="F99" s="0">
+        <v>58405.86872260699</v>
+      </c>
+      <c r="G99" s="0">
+        <v>56090.70611243007</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="0">
+        <v>3352</v>
+      </c>
+      <c r="C100" s="0">
+        <v>3242</v>
+      </c>
+      <c r="D100" s="0">
+        <v>1307280</v>
+      </c>
+      <c r="E100" s="0">
+        <v>1264380</v>
+      </c>
+      <c r="F100" s="0">
+        <v>113268.04008533312</v>
+      </c>
+      <c r="G100" s="0">
+        <v>109551.01013026551</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="0">
+        <v>3139</v>
+      </c>
+      <c r="C101" s="0">
+        <v>3276</v>
+      </c>
+      <c r="D101" s="0">
+        <v>1569500</v>
+      </c>
+      <c r="E101" s="0">
+        <v>1638000</v>
+      </c>
+      <c r="F101" s="0">
+        <v>135987.10848835853</v>
+      </c>
+      <c r="G101" s="0">
+        <v>141922.19414076538</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="0">
+        <v>11303</v>
+      </c>
+      <c r="C102" s="0">
+        <v>11463</v>
+      </c>
+      <c r="D102" s="0">
+        <v>904240</v>
+      </c>
+      <c r="E102" s="0">
+        <v>917040</v>
+      </c>
+      <c r="F102" s="0">
+        <v>78347.46249020056</v>
+      </c>
+      <c r="G102" s="0">
+        <v>79456.5126537352</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="0">
+        <v>3236</v>
+      </c>
+      <c r="C103" s="0">
+        <v>3264</v>
+      </c>
+      <c r="D103" s="0">
+        <v>1650360</v>
+      </c>
+      <c r="E103" s="0">
+        <v>1664640</v>
+      </c>
+      <c r="F103" s="0">
+        <v>142999.51292365865</v>
+      </c>
+      <c r="G103" s="0">
+        <v>144236.83874623664</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="0">
+        <v>3149</v>
+      </c>
+      <c r="C104" s="0">
+        <v>3158</v>
+      </c>
+      <c r="D104" s="0">
+        <v>1700460</v>
+      </c>
+      <c r="E104" s="0">
+        <v>1705320</v>
+      </c>
+      <c r="F104" s="0">
+        <v>147334.78359903453</v>
+      </c>
+      <c r="G104" s="0">
+        <v>147755.87380303306</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="0">
+        <v>3317</v>
+      </c>
+      <c r="C105" s="0">
+        <v>3285</v>
+      </c>
+      <c r="D105" s="0">
+        <v>1492650</v>
+      </c>
+      <c r="E105" s="0">
+        <v>1478250</v>
+      </c>
+      <c r="F105" s="0">
+        <v>129331.58701819948</v>
+      </c>
+      <c r="G105" s="0">
+        <v>128083.89006776766</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="0">
+        <v>15022</v>
+      </c>
+      <c r="C106" s="0">
+        <v>15016</v>
+      </c>
+      <c r="D106" s="0">
+        <v>1051540</v>
+      </c>
+      <c r="E106" s="0">
+        <v>1051120</v>
+      </c>
+      <c r="F106" s="0">
+        <v>91110.33786201655</v>
+      </c>
+      <c r="G106" s="0">
+        <v>91073.94709998938</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="0">
+        <v>3676</v>
+      </c>
+      <c r="C107" s="0">
+        <v>3667</v>
+      </c>
+      <c r="D107" s="0">
+        <v>992520</v>
+      </c>
+      <c r="E107" s="0">
+        <v>990090</v>
+      </c>
+      <c r="F107" s="0">
+        <v>85996.96651346778</v>
+      </c>
+      <c r="G107" s="0">
+        <v>85786.41898935974</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" s="0">
+        <v>3233</v>
+      </c>
+      <c r="C108" s="0">
+        <v>3220</v>
+      </c>
+      <c r="D108" s="0">
+        <v>1939800</v>
+      </c>
+      <c r="E108" s="0">
+        <v>1932000</v>
+      </c>
+      <c r="F108" s="0">
+        <v>168073.7862823107</v>
+      </c>
+      <c r="G108" s="0">
+        <v>167397.95602506667</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="0">
+        <v>3467</v>
+      </c>
+      <c r="C109" s="0">
+        <v>3584</v>
+      </c>
+      <c r="D109" s="0">
+        <v>1005430</v>
+      </c>
+      <c r="E109" s="0">
+        <v>1039360</v>
+      </c>
+      <c r="F109" s="0">
+        <v>87117.1457146491</v>
+      </c>
+      <c r="G109" s="0">
+        <v>90057.06669780858</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="0">
+        <v>3250</v>
+      </c>
+      <c r="C110" s="0">
+        <v>3231</v>
+      </c>
+      <c r="D110" s="0">
+        <v>1820000</v>
+      </c>
+      <c r="E110" s="0">
+        <v>1809360</v>
+      </c>
+      <c r="F110" s="0">
+        <v>157692.10567738808</v>
+      </c>
+      <c r="G110" s="0">
+        <v>156770.21336727412</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="0">
+        <v>3092</v>
+      </c>
+      <c r="C111" s="0">
+        <v>3039</v>
+      </c>
+      <c r="D111" s="0">
+        <v>2102560</v>
+      </c>
+      <c r="E111" s="0">
+        <v>2066520</v>
+      </c>
+      <c r="F111" s="0">
+        <v>182176.31326841706</v>
+      </c>
+      <c r="G111" s="0">
+        <v>179053.62743296227</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="0">
+        <v>3292</v>
+      </c>
+      <c r="C112" s="0">
+        <v>3378</v>
+      </c>
+      <c r="D112" s="0">
+        <v>1250960</v>
+      </c>
+      <c r="E112" s="0">
+        <v>1283640</v>
+      </c>
+      <c r="F112" s="0">
+        <v>108390.88023638145</v>
+      </c>
+      <c r="G112" s="0">
+        <v>111222.4767431642</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="0">
+        <v>3291</v>
+      </c>
+      <c r="C113" s="0">
+        <v>3217</v>
+      </c>
+      <c r="D113" s="0">
+        <v>1908780</v>
+      </c>
+      <c r="E113" s="0">
+        <v>1865860</v>
+      </c>
+      <c r="F113" s="0">
+        <v>165385.7737074031</v>
+      </c>
+      <c r="G113" s="0">
+        <v>161666.98086196164</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="0">
+        <v>6094</v>
+      </c>
+      <c r="C114" s="0">
+        <v>5969</v>
+      </c>
+      <c r="D114" s="0">
+        <v>670340</v>
+      </c>
+      <c r="E114" s="0">
+        <v>656590</v>
+      </c>
+      <c r="F114" s="0">
+        <v>58081.23251601387</v>
+      </c>
+      <c r="G114" s="0">
+        <v>56889.87149459908</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="0">
+        <v>3366</v>
+      </c>
+      <c r="C115" s="0">
+        <v>3362</v>
+      </c>
+      <c r="D115" s="0">
+        <v>1178100</v>
+      </c>
+      <c r="E115" s="0">
+        <v>1176700</v>
+      </c>
+      <c r="F115" s="0">
+        <v>102075.91898713869</v>
+      </c>
+      <c r="G115" s="0">
+        <v>101954.61664728468</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:K69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>609958</v>
+      </c>
+      <c r="C3" s="0">
+        <v>610911</v>
+      </c>
+      <c r="D3" s="0">
+        <v>609958</v>
+      </c>
+      <c r="E3" s="0">
+        <v>610911</v>
+      </c>
+      <c r="F3" s="0">
+        <v>354196</v>
+      </c>
+      <c r="G3" s="0">
+        <v>354522</v>
+      </c>
+      <c r="H3" s="0">
+        <v>3541960</v>
+      </c>
+      <c r="I3" s="0">
+        <v>3545220</v>
+      </c>
+      <c r="J3" s="0">
+        <v>306891.38926061254</v>
+      </c>
+      <c r="K3" s="0">
+        <v>307173.8503637841</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>610624</v>
+      </c>
+      <c r="C4" s="0">
+        <v>610392</v>
+      </c>
+      <c r="D4" s="0">
+        <v>610624</v>
+      </c>
+      <c r="E4" s="0">
+        <v>610392</v>
+      </c>
+      <c r="F4" s="0">
+        <v>311553</v>
+      </c>
+      <c r="G4" s="0">
+        <v>311640</v>
+      </c>
+      <c r="H4" s="0">
+        <v>3115530</v>
+      </c>
+      <c r="I4" s="0">
+        <v>3116400</v>
+      </c>
+      <c r="J4" s="0">
+        <v>269944.05592479266</v>
+      </c>
+      <c r="K4" s="0">
+        <v>270019.43678411824</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>883279</v>
+      </c>
+      <c r="C5" s="0">
+        <v>885197</v>
+      </c>
+      <c r="D5" s="0">
+        <v>883279</v>
+      </c>
+      <c r="E5" s="0">
+        <v>885197</v>
+      </c>
+      <c r="F5" s="0">
+        <v>247114</v>
+      </c>
+      <c r="G5" s="0">
+        <v>247551</v>
+      </c>
+      <c r="H5" s="0">
+        <v>2471140</v>
+      </c>
+      <c r="I5" s="0">
+        <v>2475510</v>
+      </c>
+      <c r="J5" s="0">
+        <v>214113.63969408575</v>
+      </c>
+      <c r="K5" s="0">
+        <v>214492.28137584528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0">
+        <v>239284</v>
+      </c>
+      <c r="C6" s="0">
+        <v>239708</v>
+      </c>
+      <c r="D6" s="0">
+        <v>239284</v>
+      </c>
+      <c r="E6" s="0">
+        <v>239708</v>
+      </c>
+      <c r="F6" s="0">
+        <v>229660</v>
+      </c>
+      <c r="G6" s="0">
+        <v>230057</v>
+      </c>
+      <c r="H6" s="0">
+        <v>2296600</v>
+      </c>
+      <c r="I6" s="0">
+        <v>2300570</v>
+      </c>
+      <c r="J6" s="0">
+        <v>198991.21670183964</v>
+      </c>
+      <c r="K6" s="0">
+        <v>199335.201344488</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>707280</v>
+      </c>
+      <c r="C7" s="0">
+        <v>710503</v>
+      </c>
+      <c r="D7" s="0">
+        <v>707280</v>
+      </c>
+      <c r="E7" s="0">
+        <v>710503</v>
+      </c>
+      <c r="F7" s="0">
+        <v>176921</v>
+      </c>
+      <c r="G7" s="0">
+        <v>177425</v>
+      </c>
+      <c r="H7" s="0">
+        <v>1769210</v>
+      </c>
+      <c r="I7" s="0">
+        <v>1774250</v>
+      </c>
+      <c r="J7" s="0">
+        <v>153296.1060161875</v>
+      </c>
+      <c r="K7" s="0">
+        <v>153732.80509335842</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>270098</v>
+      </c>
+      <c r="C8" s="0">
+        <v>270304</v>
+      </c>
+      <c r="D8" s="0">
+        <v>270098</v>
+      </c>
+      <c r="E8" s="0">
+        <v>270304</v>
+      </c>
+      <c r="F8" s="0">
+        <v>156841</v>
+      </c>
+      <c r="G8" s="0">
+        <v>157125</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1568410</v>
+      </c>
+      <c r="I8" s="0">
+        <v>1571250</v>
+      </c>
+      <c r="J8" s="0">
+        <v>135897.63151408784</v>
+      </c>
+      <c r="K8" s="0">
+        <v>136143.70828833696</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0">
+        <v>189789</v>
+      </c>
+      <c r="C9" s="0">
+        <v>190368</v>
+      </c>
+      <c r="D9" s="0">
+        <v>189789</v>
+      </c>
+      <c r="E9" s="0">
+        <v>190368</v>
+      </c>
+      <c r="F9" s="0">
+        <v>142374</v>
+      </c>
+      <c r="G9" s="0">
+        <v>142743</v>
+      </c>
+      <c r="H9" s="0">
+        <v>1423740</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1427430</v>
+      </c>
+      <c r="J9" s="0">
+        <v>123362.60903015414</v>
+      </c>
+      <c r="K9" s="0">
+        <v>123682.3359657753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0">
+        <v>137553</v>
+      </c>
+      <c r="C10" s="0">
+        <v>137834</v>
+      </c>
+      <c r="D10" s="0">
+        <v>137553</v>
+      </c>
+      <c r="E10" s="0">
+        <v>137834</v>
+      </c>
+      <c r="F10" s="0">
+        <v>132084</v>
+      </c>
+      <c r="G10" s="0">
+        <v>132246</v>
+      </c>
+      <c r="H10" s="0">
+        <v>1320840</v>
+      </c>
+      <c r="I10" s="0">
+        <v>1322460</v>
+      </c>
+      <c r="J10" s="0">
+        <v>114446.32793021662</v>
+      </c>
+      <c r="K10" s="0">
+        <v>114586.69546242864</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0">
+        <v>145563</v>
+      </c>
+      <c r="C11" s="0">
+        <v>146134</v>
+      </c>
+      <c r="D11" s="0">
+        <v>145563</v>
+      </c>
+      <c r="E11" s="0">
+        <v>146134</v>
+      </c>
+      <c r="F11" s="0">
+        <v>120625</v>
+      </c>
+      <c r="G11" s="0">
+        <v>121364</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1206250</v>
+      </c>
+      <c r="I11" s="0">
+        <v>1213640</v>
+      </c>
+      <c r="J11" s="0">
+        <v>104517.31372030769</v>
+      </c>
+      <c r="K11" s="0">
+        <v>105157.63119047813</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0">
+        <v>186600</v>
+      </c>
+      <c r="C12" s="0">
+        <v>186912</v>
+      </c>
+      <c r="D12" s="0">
+        <v>186600</v>
+      </c>
+      <c r="E12" s="0">
+        <v>186912</v>
+      </c>
+      <c r="F12" s="0">
+        <v>106166</v>
+      </c>
+      <c r="G12" s="0">
+        <v>106726</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1061660</v>
+      </c>
+      <c r="I12" s="0">
+        <v>1067260</v>
+      </c>
+      <c r="J12" s="0">
+        <v>91988.89501517716</v>
+      </c>
+      <c r="K12" s="0">
+        <v>92474.1142116101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0">
+        <v>164699</v>
+      </c>
+      <c r="C13" s="0">
+        <v>163962</v>
+      </c>
+      <c r="D13" s="0">
+        <v>164699</v>
+      </c>
+      <c r="E13" s="0">
+        <v>163962</v>
+      </c>
+      <c r="F13" s="0">
+        <v>93218</v>
+      </c>
+      <c r="G13" s="0">
+        <v>93631</v>
+      </c>
+      <c r="H13" s="0">
+        <v>932180</v>
+      </c>
+      <c r="I13" s="0">
+        <v>936310</v>
+      </c>
+      <c r="J13" s="0">
+        <v>80769.46195427277</v>
+      </c>
+      <c r="K13" s="0">
+        <v>81127.30902015184</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0">
+        <v>119769</v>
+      </c>
+      <c r="C14" s="0">
+        <v>119736</v>
+      </c>
+      <c r="D14" s="0">
+        <v>119769</v>
+      </c>
+      <c r="E14" s="0">
+        <v>119736</v>
+      </c>
+      <c r="F14" s="0">
+        <v>83758</v>
+      </c>
+      <c r="G14" s="0">
+        <v>84067</v>
+      </c>
+      <c r="H14" s="0">
+        <v>837580</v>
+      </c>
+      <c r="I14" s="0">
+        <v>840670</v>
+      </c>
+      <c r="J14" s="0">
+        <v>72572.25631415859</v>
+      </c>
+      <c r="K14" s="0">
+        <v>72839.98987036904</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0">
+        <v>148541</v>
+      </c>
+      <c r="C15" s="0">
+        <v>149480</v>
+      </c>
+      <c r="D15" s="0">
+        <v>148541</v>
+      </c>
+      <c r="E15" s="0">
+        <v>149480</v>
+      </c>
+      <c r="F15" s="0">
+        <v>71667</v>
+      </c>
+      <c r="G15" s="0">
+        <v>71802</v>
+      </c>
+      <c r="H15" s="0">
+        <v>716670</v>
+      </c>
+      <c r="I15" s="0">
+        <v>718020</v>
+      </c>
+      <c r="J15" s="0">
+        <v>62095.34478741058</v>
+      </c>
+      <c r="K15" s="0">
+        <v>62212.31454401126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0">
+        <v>108101</v>
+      </c>
+      <c r="C16" s="0">
+        <v>108411</v>
+      </c>
+      <c r="D16" s="0">
+        <v>108101</v>
+      </c>
+      <c r="E16" s="0">
+        <v>108411</v>
+      </c>
+      <c r="F16" s="0">
+        <v>62689</v>
+      </c>
+      <c r="G16" s="0">
+        <v>62906</v>
+      </c>
+      <c r="H16" s="0">
+        <v>626890</v>
+      </c>
+      <c r="I16" s="0">
+        <v>629060</v>
+      </c>
+      <c r="J16" s="0">
+        <v>54315.95294209516</v>
+      </c>
+      <c r="K16" s="0">
+        <v>54503.96936903505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0">
+        <v>112437</v>
+      </c>
+      <c r="C17" s="0">
+        <v>113885</v>
+      </c>
+      <c r="D17" s="0">
+        <v>112437</v>
+      </c>
+      <c r="E17" s="0">
+        <v>113885</v>
+      </c>
+      <c r="F17" s="0">
+        <v>52810</v>
+      </c>
+      <c r="G17" s="0">
+        <v>53450</v>
+      </c>
+      <c r="H17" s="0">
+        <v>528100</v>
+      </c>
+      <c r="I17" s="0">
+        <v>534500</v>
+      </c>
+      <c r="J17" s="0">
+        <v>45756.147230317</v>
+      </c>
+      <c r="K17" s="0">
+        <v>46310.66217497527</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0">
+        <v>50198</v>
+      </c>
+      <c r="C18" s="0">
+        <v>50578</v>
+      </c>
+      <c r="D18" s="0">
+        <v>50198</v>
+      </c>
+      <c r="E18" s="0">
+        <v>50578</v>
+      </c>
+      <c r="F18" s="0">
+        <v>48714</v>
+      </c>
+      <c r="G18" s="0">
+        <v>49060</v>
+      </c>
+      <c r="H18" s="0">
+        <v>487140</v>
+      </c>
+      <c r="I18" s="0">
+        <v>490600</v>
+      </c>
+      <c r="J18" s="0">
+        <v>42207.01043931544</v>
+      </c>
+      <c r="K18" s="0">
+        <v>42506.79336849398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0">
+        <v>126513</v>
+      </c>
+      <c r="C19" s="0">
+        <v>126474</v>
+      </c>
+      <c r="D19" s="0">
+        <v>126513</v>
+      </c>
+      <c r="E19" s="0">
+        <v>126474</v>
+      </c>
+      <c r="F19" s="0">
+        <v>37962</v>
+      </c>
+      <c r="G19" s="0">
+        <v>38094</v>
+      </c>
+      <c r="H19" s="0">
+        <v>379620</v>
+      </c>
+      <c r="I19" s="0">
+        <v>380940</v>
+      </c>
+      <c r="J19" s="0">
+        <v>32890.69862140266</v>
+      </c>
+      <c r="K19" s="0">
+        <v>33005.06488814375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0">
+        <v>36348</v>
+      </c>
+      <c r="C20" s="0">
+        <v>36194</v>
+      </c>
+      <c r="D20" s="0">
+        <v>36348</v>
+      </c>
+      <c r="E20" s="0">
+        <v>36194</v>
+      </c>
+      <c r="F20" s="0">
+        <v>34874</v>
+      </c>
+      <c r="G20" s="0">
+        <v>34722</v>
+      </c>
+      <c r="H20" s="0">
+        <v>348740</v>
+      </c>
+      <c r="I20" s="0">
+        <v>347220</v>
+      </c>
+      <c r="J20" s="0">
+        <v>30215.151859795376</v>
+      </c>
+      <c r="K20" s="0">
+        <v>30083.45767264481</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0">
+        <v>77467</v>
+      </c>
+      <c r="C21" s="0">
+        <v>76739</v>
+      </c>
+      <c r="D21" s="0">
+        <v>77467</v>
+      </c>
+      <c r="E21" s="0">
+        <v>76739</v>
+      </c>
+      <c r="F21" s="0">
+        <v>27937</v>
+      </c>
+      <c r="G21" s="0">
+        <v>27701</v>
+      </c>
+      <c r="H21" s="0">
+        <v>279370</v>
+      </c>
+      <c r="I21" s="0">
+        <v>277010</v>
+      </c>
+      <c r="J21" s="0">
+        <v>24204.56844603312</v>
+      </c>
+      <c r="K21" s="0">
+        <v>24000.098454507053</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0">
+        <v>31735</v>
+      </c>
+      <c r="C22" s="0">
+        <v>31524</v>
+      </c>
+      <c r="D22" s="0">
+        <v>31735</v>
+      </c>
+      <c r="E22" s="0">
+        <v>31524</v>
+      </c>
+      <c r="F22" s="0">
+        <v>24995</v>
+      </c>
+      <c r="G22" s="0">
+        <v>24878</v>
+      </c>
+      <c r="H22" s="0">
+        <v>249950</v>
+      </c>
+      <c r="I22" s="0">
+        <v>248780</v>
+      </c>
+      <c r="J22" s="0">
+        <v>21655.48203590217</v>
+      </c>
+      <c r="K22" s="0">
+        <v>21554.114106388246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0">
+        <v>61534</v>
+      </c>
+      <c r="C23" s="0">
+        <v>61302</v>
+      </c>
+      <c r="D23" s="0">
+        <v>61534</v>
+      </c>
+      <c r="E23" s="0">
+        <v>61302</v>
+      </c>
+      <c r="F23" s="0">
+        <v>19098</v>
+      </c>
+      <c r="G23" s="0">
+        <v>19188</v>
+      </c>
+      <c r="H23" s="0">
+        <v>190980</v>
+      </c>
+      <c r="I23" s="0">
+        <v>191880</v>
+      </c>
+      <c r="J23" s="0">
+        <v>16546.233407664186</v>
+      </c>
+      <c r="K23" s="0">
+        <v>16624.208117408125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0">
+        <v>25100</v>
+      </c>
+      <c r="C24" s="0">
+        <v>25117</v>
+      </c>
+      <c r="D24" s="0">
+        <v>25100</v>
+      </c>
+      <c r="E24" s="0">
+        <v>25117</v>
+      </c>
+      <c r="F24" s="0">
+        <v>16871</v>
+      </c>
+      <c r="G24" s="0">
+        <v>16705</v>
+      </c>
+      <c r="H24" s="0">
+        <v>168710</v>
+      </c>
+      <c r="I24" s="0">
+        <v>167050</v>
+      </c>
+      <c r="J24" s="0">
+        <v>14616.707660724418</v>
+      </c>
+      <c r="K24" s="0">
+        <v>14472.888475632828</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0">
+        <v>26970</v>
+      </c>
+      <c r="C25" s="0">
+        <v>26822</v>
+      </c>
+      <c r="D25" s="0">
+        <v>26970</v>
+      </c>
+      <c r="E25" s="0">
+        <v>26822</v>
+      </c>
+      <c r="F25" s="0">
+        <v>14208</v>
+      </c>
+      <c r="G25" s="0">
+        <v>14229</v>
+      </c>
+      <c r="H25" s="0">
+        <v>142080</v>
+      </c>
+      <c r="I25" s="0">
+        <v>142290</v>
+      </c>
+      <c r="J25" s="0">
+        <v>12309.473679146668</v>
+      </c>
+      <c r="K25" s="0">
+        <v>12327.667580277162</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0">
+        <v>33069</v>
+      </c>
+      <c r="C26" s="0">
+        <v>32985</v>
+      </c>
+      <c r="D26" s="0">
+        <v>33069</v>
+      </c>
+      <c r="E26" s="0">
+        <v>32985</v>
+      </c>
+      <c r="F26" s="0">
+        <v>10831</v>
+      </c>
+      <c r="G26" s="0">
+        <v>11028</v>
+      </c>
+      <c r="H26" s="0">
+        <v>108310</v>
+      </c>
+      <c r="I26" s="0">
+        <v>110280</v>
+      </c>
+      <c r="J26" s="0">
+        <v>9383.611977325027</v>
+      </c>
+      <c r="K26" s="0">
+        <v>9554.286112634143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0">
+        <v>16532</v>
+      </c>
+      <c r="C27" s="0">
+        <v>16854</v>
+      </c>
+      <c r="D27" s="0">
+        <v>16532</v>
+      </c>
+      <c r="E27" s="0">
+        <v>16854</v>
+      </c>
+      <c r="F27" s="0">
+        <v>9180</v>
+      </c>
+      <c r="G27" s="0">
+        <v>9269</v>
+      </c>
+      <c r="H27" s="0">
+        <v>91800</v>
+      </c>
+      <c r="I27" s="0">
+        <v>92690</v>
+      </c>
+      <c r="J27" s="0">
+        <v>7953.199099803274</v>
+      </c>
+      <c r="K27" s="0">
+        <v>8030.3052784397105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0">
+        <v>19932</v>
+      </c>
+      <c r="C28" s="0">
+        <v>20073</v>
+      </c>
+      <c r="D28" s="0">
+        <v>19932</v>
+      </c>
+      <c r="E28" s="0">
+        <v>20073</v>
+      </c>
+      <c r="F28" s="0">
+        <v>7200</v>
+      </c>
+      <c r="G28" s="0">
+        <v>7144</v>
+      </c>
+      <c r="H28" s="0">
+        <v>72000</v>
+      </c>
+      <c r="I28" s="0">
+        <v>71440</v>
+      </c>
+      <c r="J28" s="0">
+        <v>6237.780743602821</v>
+      </c>
+      <c r="K28" s="0">
+        <v>6189.264671152576</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0">
+        <v>11341</v>
+      </c>
+      <c r="C29" s="0">
+        <v>11374</v>
+      </c>
+      <c r="D29" s="0">
+        <v>11341</v>
+      </c>
+      <c r="E29" s="0">
+        <v>11374</v>
+      </c>
+      <c r="F29" s="0">
+        <v>5924</v>
+      </c>
+      <c r="G29" s="0">
+        <v>5963</v>
+      </c>
+      <c r="H29" s="0">
+        <v>59240</v>
+      </c>
+      <c r="I29" s="0">
+        <v>59630</v>
+      </c>
+      <c r="J29" s="0">
+        <v>5132.269090923341</v>
+      </c>
+      <c r="K29" s="0">
+        <v>5166.056817889244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0">
+        <v>17250</v>
+      </c>
+      <c r="C30" s="0">
+        <v>17592</v>
+      </c>
+      <c r="D30" s="0">
+        <v>17250</v>
+      </c>
+      <c r="E30" s="0">
+        <v>17592</v>
+      </c>
+      <c r="F30" s="0">
+        <v>3962</v>
+      </c>
+      <c r="G30" s="0">
+        <v>4145</v>
+      </c>
+      <c r="H30" s="0">
+        <v>39620</v>
+      </c>
+      <c r="I30" s="0">
+        <v>41450</v>
+      </c>
+      <c r="J30" s="0">
+        <v>3432.5070004373947</v>
+      </c>
+      <c r="K30" s="0">
+        <v>3591.0503576004553</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6953</v>
+      </c>
+      <c r="C31" s="0">
+        <v>6988</v>
+      </c>
+      <c r="D31" s="0">
+        <v>6953</v>
+      </c>
+      <c r="E31" s="0">
+        <v>6988</v>
+      </c>
+      <c r="F31" s="0">
+        <v>3234</v>
+      </c>
+      <c r="G31" s="0">
+        <v>3280</v>
+      </c>
+      <c r="H31" s="0">
+        <v>32340</v>
+      </c>
+      <c r="I31" s="0">
+        <v>32800</v>
+      </c>
+      <c r="J31" s="0">
+        <v>2801.763858217719</v>
+      </c>
+      <c r="K31" s="0">
+        <v>2841.615786936957</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0">
+        <v>4032</v>
+      </c>
+      <c r="C32" s="0">
+        <v>4255</v>
+      </c>
+      <c r="D32" s="0">
+        <v>4032</v>
+      </c>
+      <c r="E32" s="0">
+        <v>4255</v>
+      </c>
+      <c r="F32" s="0">
+        <v>2729</v>
+      </c>
+      <c r="G32" s="0">
+        <v>2835</v>
+      </c>
+      <c r="H32" s="0">
+        <v>27290</v>
+      </c>
+      <c r="I32" s="0">
+        <v>28350</v>
+      </c>
+      <c r="J32" s="0">
+        <v>2364.235144341012</v>
+      </c>
+      <c r="K32" s="0">
+        <v>2456.066923490938</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0">
+        <v>4487</v>
+      </c>
+      <c r="C33" s="0">
+        <v>4609</v>
+      </c>
+      <c r="D33" s="0">
+        <v>4487</v>
+      </c>
+      <c r="E33" s="0">
+        <v>4609</v>
+      </c>
+      <c r="F33" s="0">
+        <v>2219</v>
+      </c>
+      <c r="G33" s="0">
+        <v>2232</v>
+      </c>
+      <c r="H33" s="0">
+        <v>22190</v>
+      </c>
+      <c r="I33" s="0">
+        <v>22320</v>
+      </c>
+      <c r="J33" s="0">
+        <v>1922.3896620116727</v>
+      </c>
+      <c r="K33" s="0">
+        <v>1933.6519718837556</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
         <v>32</v>
       </c>
-      <c r="B31" s="0">
-        <v>210791</v>
-      </c>
-      <c r="C31" s="0">
-        <v>210789</v>
+      <c r="B34" s="0">
+        <v>2318</v>
+      </c>
+      <c r="C34" s="0">
+        <v>2227</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2318</v>
+      </c>
+      <c r="E34" s="0">
+        <v>2227</v>
+      </c>
+      <c r="F34" s="0">
+        <v>1957</v>
+      </c>
+      <c r="G34" s="0">
+        <v>1926</v>
+      </c>
+      <c r="H34" s="0">
+        <v>19570</v>
+      </c>
+      <c r="I34" s="0">
+        <v>19260</v>
+      </c>
+      <c r="J34" s="0">
+        <v>1695.3991192757646</v>
+      </c>
+      <c r="K34" s="0">
+        <v>1668.5430269418102</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0">
+        <v>2209</v>
+      </c>
+      <c r="C35" s="0">
+        <v>2090</v>
+      </c>
+      <c r="D35" s="0">
+        <v>2209</v>
+      </c>
+      <c r="E35" s="0">
+        <v>2090</v>
+      </c>
+      <c r="F35" s="0">
+        <v>1684</v>
+      </c>
+      <c r="G35" s="0">
+        <v>1610</v>
+      </c>
+      <c r="H35" s="0">
+        <v>16840</v>
+      </c>
+      <c r="I35" s="0">
+        <v>16100</v>
+      </c>
+      <c r="J35" s="0">
+        <v>1458.877749916339</v>
+      </c>
+      <c r="K35" s="0">
+        <v>1394.770295347569</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0">
+        <v>2525</v>
+      </c>
+      <c r="C36" s="0">
+        <v>2445</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2525</v>
+      </c>
+      <c r="E36" s="0">
+        <v>2445</v>
+      </c>
+      <c r="F36" s="0">
+        <v>1318</v>
+      </c>
+      <c r="G36" s="0">
+        <v>1309</v>
+      </c>
+      <c r="H36" s="0">
+        <v>13180</v>
+      </c>
+      <c r="I36" s="0">
+        <v>13090</v>
+      </c>
+      <c r="J36" s="0">
+        <v>1141.7964961675586</v>
+      </c>
+      <c r="K36" s="0">
+        <v>1133.9997067400107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1615</v>
+      </c>
+      <c r="C37" s="0">
+        <v>1617</v>
+      </c>
+      <c r="D37" s="0">
+        <v>1615</v>
+      </c>
+      <c r="E37" s="0">
+        <v>1617</v>
+      </c>
+      <c r="F37" s="0">
+        <v>1069</v>
+      </c>
+      <c r="G37" s="0">
+        <v>1120</v>
+      </c>
+      <c r="H37" s="0">
+        <v>10690</v>
+      </c>
+      <c r="I37" s="0">
+        <v>11200</v>
+      </c>
+      <c r="J37" s="0">
+        <v>926.1132772465489</v>
+      </c>
+      <c r="K37" s="0">
+        <v>970.2964176951682</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0">
+        <v>2492</v>
+      </c>
+      <c r="C38" s="0">
+        <v>2555</v>
+      </c>
+      <c r="D38" s="0">
+        <v>2492</v>
+      </c>
+      <c r="E38" s="0">
+        <v>2555</v>
+      </c>
+      <c r="F38" s="0">
+        <v>780</v>
+      </c>
+      <c r="G38" s="0">
+        <v>778</v>
+      </c>
+      <c r="H38" s="0">
+        <v>7800</v>
+      </c>
+      <c r="I38" s="0">
+        <v>7780</v>
+      </c>
+      <c r="J38" s="0">
+        <v>675.7345525742521</v>
+      </c>
+      <c r="K38" s="0">
+        <v>674.0018998753438</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0">
+        <v>921</v>
+      </c>
+      <c r="C39" s="0">
+        <v>872</v>
+      </c>
+      <c r="D39" s="0">
+        <v>921</v>
+      </c>
+      <c r="E39" s="0">
+        <v>872</v>
+      </c>
+      <c r="F39" s="0">
+        <v>691</v>
+      </c>
+      <c r="G39" s="0">
+        <v>633</v>
+      </c>
+      <c r="H39" s="0">
+        <v>6910</v>
+      </c>
+      <c r="I39" s="0">
+        <v>6330</v>
+      </c>
+      <c r="J39" s="0">
+        <v>598.6288705872448</v>
+      </c>
+      <c r="K39" s="0">
+        <v>548.3821636493864</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0">
+        <v>828</v>
+      </c>
+      <c r="C40" s="0">
+        <v>736</v>
+      </c>
+      <c r="D40" s="0">
+        <v>828</v>
+      </c>
+      <c r="E40" s="0">
+        <v>736</v>
+      </c>
+      <c r="F40" s="0">
+        <v>570</v>
+      </c>
+      <c r="G40" s="0">
+        <v>535</v>
+      </c>
+      <c r="H40" s="0">
+        <v>5700</v>
+      </c>
+      <c r="I40" s="0">
+        <v>5350</v>
+      </c>
+      <c r="J40" s="0">
+        <v>493.8058860942113</v>
+      </c>
+      <c r="K40" s="0">
+        <v>463.4844720357948</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0">
+        <v>866</v>
+      </c>
+      <c r="C41" s="0">
+        <v>839</v>
+      </c>
+      <c r="D41" s="0">
+        <v>866</v>
+      </c>
+      <c r="E41" s="0">
+        <v>839</v>
+      </c>
+      <c r="F41" s="0">
+        <v>442</v>
+      </c>
+      <c r="G41" s="0">
+        <v>430</v>
+      </c>
+      <c r="H41" s="0">
+        <v>4420</v>
+      </c>
+      <c r="I41" s="0">
+        <v>4300</v>
+      </c>
+      <c r="J41" s="0">
+        <v>382.9075923967727</v>
+      </c>
+      <c r="K41" s="0">
+        <v>372.51191115523136</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0">
+        <v>1101</v>
+      </c>
+      <c r="C42" s="0">
+        <v>1027</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1101</v>
+      </c>
+      <c r="E42" s="0">
+        <v>1027</v>
+      </c>
+      <c r="F42" s="0">
+        <v>291</v>
+      </c>
+      <c r="G42" s="0">
+        <v>276</v>
+      </c>
+      <c r="H42" s="0">
+        <v>2910</v>
+      </c>
+      <c r="I42" s="0">
+        <v>2760</v>
+      </c>
+      <c r="J42" s="0">
+        <v>252.0942576505051</v>
+      </c>
+      <c r="K42" s="0">
+        <v>239.099708287077</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0">
+        <v>700</v>
+      </c>
+      <c r="C43" s="0">
+        <v>644</v>
+      </c>
+      <c r="D43" s="0">
+        <v>700</v>
+      </c>
+      <c r="E43" s="0">
+        <v>644</v>
+      </c>
+      <c r="F43" s="0">
+        <v>178</v>
+      </c>
+      <c r="G43" s="0">
+        <v>158</v>
+      </c>
+      <c r="H43" s="0">
+        <v>1780</v>
+      </c>
+      <c r="I43" s="0">
+        <v>1580</v>
+      </c>
+      <c r="J43" s="0">
+        <v>154.19567210273087</v>
+      </c>
+      <c r="K43" s="0">
+        <v>136.8703156866937</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0">
+        <v>164</v>
+      </c>
+      <c r="C44" s="0">
+        <v>169</v>
+      </c>
+      <c r="D44" s="0">
+        <v>164</v>
+      </c>
+      <c r="E44" s="0">
+        <v>169</v>
+      </c>
+      <c r="F44" s="0">
+        <v>137</v>
+      </c>
+      <c r="G44" s="0">
+        <v>137</v>
+      </c>
+      <c r="H44" s="0">
+        <v>1370</v>
+      </c>
+      <c r="I44" s="0">
+        <v>1370</v>
+      </c>
+      <c r="J44" s="0">
+        <v>118.68444964545702</v>
+      </c>
+      <c r="K44" s="0">
+        <v>118.68444964545702</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0">
+        <v>146</v>
+      </c>
+      <c r="C45" s="0">
+        <v>134</v>
+      </c>
+      <c r="D45" s="0">
+        <v>146</v>
+      </c>
+      <c r="E45" s="0">
+        <v>134</v>
+      </c>
+      <c r="F45" s="0">
+        <v>122</v>
+      </c>
+      <c r="G45" s="0">
+        <v>114</v>
+      </c>
+      <c r="H45" s="0">
+        <v>1220</v>
+      </c>
+      <c r="I45" s="0">
+        <v>1140</v>
+      </c>
+      <c r="J45" s="0">
+        <v>105.69150593506447</v>
+      </c>
+      <c r="K45" s="0">
+        <v>98.76091538194548</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0">
+        <v>100</v>
+      </c>
+      <c r="D46" s="0">
+        <v>135</v>
+      </c>
+      <c r="E46" s="0">
+        <v>100</v>
+      </c>
+      <c r="F46" s="0">
+        <v>116</v>
+      </c>
+      <c r="G46" s="0">
+        <v>85</v>
+      </c>
+      <c r="H46" s="0">
+        <v>1160</v>
+      </c>
+      <c r="I46" s="0">
+        <v>850</v>
+      </c>
+      <c r="J46" s="0">
+        <v>100.4905601926501</v>
+      </c>
+      <c r="K46" s="0">
+        <v>73.63532427909706</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0">
+        <v>138</v>
+      </c>
+      <c r="C47" s="0">
+        <v>118</v>
+      </c>
+      <c r="D47" s="0">
+        <v>138</v>
+      </c>
+      <c r="E47" s="0">
+        <v>118</v>
+      </c>
+      <c r="F47" s="0">
+        <v>93</v>
+      </c>
+      <c r="G47" s="0">
+        <v>84</v>
+      </c>
+      <c r="H47" s="0">
+        <v>930</v>
+      </c>
+      <c r="I47" s="0">
+        <v>840</v>
+      </c>
+      <c r="J47" s="0">
+        <v>80.56058412729622</v>
+      </c>
+      <c r="K47" s="0">
+        <v>72.76439856659013</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0">
+        <v>103</v>
+      </c>
+      <c r="C48" s="0">
+        <v>97</v>
+      </c>
+      <c r="D48" s="0">
+        <v>103</v>
+      </c>
+      <c r="E48" s="0">
+        <v>97</v>
+      </c>
+      <c r="F48" s="0">
+        <v>68</v>
+      </c>
+      <c r="G48" s="0">
+        <v>55</v>
+      </c>
+      <c r="H48" s="0">
+        <v>680</v>
+      </c>
+      <c r="I48" s="0">
+        <v>550</v>
+      </c>
+      <c r="J48" s="0">
+        <v>58.90427309051676</v>
+      </c>
+      <c r="K48" s="0">
+        <v>47.643162058506206</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0">
+        <v>110</v>
+      </c>
+      <c r="C49" s="0">
+        <v>96</v>
+      </c>
+      <c r="D49" s="0">
+        <v>110</v>
+      </c>
+      <c r="E49" s="0">
+        <v>96</v>
+      </c>
+      <c r="F49" s="0">
+        <v>47</v>
+      </c>
+      <c r="G49" s="0">
+        <v>42</v>
+      </c>
+      <c r="H49" s="0">
+        <v>470</v>
+      </c>
+      <c r="I49" s="0">
+        <v>420</v>
+      </c>
+      <c r="J49" s="0">
+        <v>40.71503116133247</v>
+      </c>
+      <c r="K49" s="0">
+        <v>36.38364486757369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0">
+        <v>41</v>
+      </c>
+      <c r="C50" s="0">
+        <v>37</v>
+      </c>
+      <c r="D50" s="0">
+        <v>41</v>
+      </c>
+      <c r="E50" s="0">
+        <v>37</v>
+      </c>
+      <c r="F50" s="0">
+        <v>38</v>
+      </c>
+      <c r="G50" s="0">
+        <v>36</v>
+      </c>
+      <c r="H50" s="0">
+        <v>380</v>
+      </c>
+      <c r="I50" s="0">
+        <v>360</v>
+      </c>
+      <c r="J50" s="0">
+        <v>32.919656594254974</v>
+      </c>
+      <c r="K50" s="0">
+        <v>31.18704308929419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0">
+        <v>38</v>
+      </c>
+      <c r="C51" s="0">
+        <v>45</v>
+      </c>
+      <c r="D51" s="0">
+        <v>38</v>
+      </c>
+      <c r="E51" s="0">
+        <v>45</v>
+      </c>
+      <c r="F51" s="0">
+        <v>29</v>
+      </c>
+      <c r="G51" s="0">
+        <v>37</v>
+      </c>
+      <c r="H51" s="0">
+        <v>290</v>
+      </c>
+      <c r="I51" s="0">
+        <v>370</v>
+      </c>
+      <c r="J51" s="0">
+        <v>25.12337356327925</v>
+      </c>
+      <c r="K51" s="0">
+        <v>32.05395937383904</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0">
+        <v>33</v>
+      </c>
+      <c r="C52" s="0">
+        <v>40</v>
+      </c>
+      <c r="D52" s="0">
+        <v>33</v>
+      </c>
+      <c r="E52" s="0">
+        <v>40</v>
+      </c>
+      <c r="F52" s="0">
+        <v>23</v>
+      </c>
+      <c r="G52" s="0">
+        <v>30</v>
+      </c>
+      <c r="H52" s="0">
+        <v>230</v>
+      </c>
+      <c r="I52" s="0">
+        <v>300</v>
+      </c>
+      <c r="J52" s="0">
+        <v>19.925300273296923</v>
+      </c>
+      <c r="K52" s="0">
+        <v>25.98952209560468</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0">
+        <v>48</v>
+      </c>
+      <c r="C53" s="0">
+        <v>65</v>
+      </c>
+      <c r="D53" s="0">
+        <v>48</v>
+      </c>
+      <c r="E53" s="0">
+        <v>65</v>
+      </c>
+      <c r="F53" s="0">
+        <v>19</v>
+      </c>
+      <c r="G53" s="0">
+        <v>21</v>
+      </c>
+      <c r="H53" s="0">
+        <v>190</v>
+      </c>
+      <c r="I53" s="0">
+        <v>210</v>
+      </c>
+      <c r="J53" s="0">
+        <v>16.458499007960786</v>
+      </c>
+      <c r="K53" s="0">
+        <v>18.19097258774613</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0">
+        <v>20</v>
+      </c>
+      <c r="C54" s="0">
+        <v>23</v>
+      </c>
+      <c r="D54" s="0">
+        <v>20</v>
+      </c>
+      <c r="E54" s="0">
+        <v>23</v>
+      </c>
+      <c r="F54" s="0">
+        <v>14</v>
+      </c>
+      <c r="G54" s="0">
+        <v>18</v>
+      </c>
+      <c r="H54" s="0">
+        <v>140</v>
+      </c>
+      <c r="I54" s="0">
+        <v>180</v>
+      </c>
+      <c r="J54" s="0">
+        <v>12.12529274576203</v>
+      </c>
+      <c r="K54" s="0">
+        <v>15.589662101694037</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0">
+        <v>14</v>
+      </c>
+      <c r="C55" s="0">
+        <v>15</v>
+      </c>
+      <c r="D55" s="0">
+        <v>14</v>
+      </c>
+      <c r="E55" s="0">
+        <v>15</v>
+      </c>
+      <c r="F55" s="0">
+        <v>13</v>
+      </c>
+      <c r="G55" s="0">
+        <v>15</v>
+      </c>
+      <c r="H55" s="0">
+        <v>130</v>
+      </c>
+      <c r="I55" s="0">
+        <v>150</v>
+      </c>
+      <c r="J55" s="0">
+        <v>11.258183120584093</v>
+      </c>
+      <c r="K55" s="0">
+        <v>12.990211292981646</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0">
+        <v>18</v>
+      </c>
+      <c r="C56" s="0">
+        <v>18</v>
+      </c>
+      <c r="D56" s="0">
+        <v>18</v>
+      </c>
+      <c r="E56" s="0">
+        <v>18</v>
+      </c>
+      <c r="F56" s="0">
+        <v>11</v>
+      </c>
+      <c r="G56" s="0">
+        <v>11</v>
+      </c>
+      <c r="H56" s="0">
+        <v>110</v>
+      </c>
+      <c r="I56" s="0">
+        <v>110</v>
+      </c>
+      <c r="J56" s="0">
+        <v>9.527258730648688</v>
+      </c>
+      <c r="K56" s="0">
+        <v>9.527258730648688</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0">
+        <v>11</v>
+      </c>
+      <c r="C57" s="0">
+        <v>10</v>
+      </c>
+      <c r="D57" s="0">
+        <v>11</v>
+      </c>
+      <c r="E57" s="0">
+        <v>10</v>
+      </c>
+      <c r="F57" s="0">
+        <v>9</v>
+      </c>
+      <c r="G57" s="0">
+        <v>8</v>
+      </c>
+      <c r="H57" s="0">
+        <v>90</v>
+      </c>
+      <c r="I57" s="0">
+        <v>80</v>
+      </c>
+      <c r="J57" s="0">
+        <v>7.796657584984906</v>
+      </c>
+      <c r="K57" s="0">
+        <v>6.93036229776436</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0">
+        <v>15</v>
+      </c>
+      <c r="C58" s="0">
+        <v>4</v>
+      </c>
+      <c r="D58" s="0">
+        <v>15</v>
+      </c>
+      <c r="E58" s="0">
+        <v>4</v>
+      </c>
+      <c r="F58" s="0">
+        <v>13</v>
+      </c>
+      <c r="G58" s="0">
+        <v>4</v>
+      </c>
+      <c r="H58" s="0">
+        <v>130</v>
+      </c>
+      <c r="I58" s="0">
+        <v>40</v>
+      </c>
+      <c r="J58" s="0">
+        <v>11.2620253891899</v>
+      </c>
+      <c r="K58" s="0">
+        <v>3.4652385812892</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0">
+        <v>11</v>
+      </c>
+      <c r="C59" s="0">
+        <v>4</v>
+      </c>
+      <c r="D59" s="0">
+        <v>11</v>
+      </c>
+      <c r="E59" s="0">
+        <v>4</v>
+      </c>
+      <c r="F59" s="0">
+        <v>10</v>
+      </c>
+      <c r="G59" s="0">
+        <v>4</v>
+      </c>
+      <c r="H59" s="0">
+        <v>100</v>
+      </c>
+      <c r="I59" s="0">
+        <v>40</v>
+      </c>
+      <c r="J59" s="0">
+        <v>8.66381969378838</v>
+      </c>
+      <c r="K59" s="0">
+        <v>3.465527877515352</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0">
+        <v>10</v>
+      </c>
+      <c r="C60" s="0">
+        <v>3</v>
+      </c>
+      <c r="D60" s="0">
+        <v>10</v>
+      </c>
+      <c r="E60" s="0">
+        <v>3</v>
+      </c>
+      <c r="F60" s="0">
+        <v>10</v>
+      </c>
+      <c r="G60" s="0">
+        <v>3</v>
+      </c>
+      <c r="H60" s="0">
+        <v>100</v>
+      </c>
+      <c r="I60" s="0">
+        <v>30</v>
+      </c>
+      <c r="J60" s="0">
+        <v>8.664325419551002</v>
+      </c>
+      <c r="K60" s="0">
+        <v>2.599297625865301</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0">
+        <v>8</v>
+      </c>
+      <c r="C61" s="0">
+        <v>9</v>
+      </c>
+      <c r="D61" s="0">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0">
+        <v>9</v>
+      </c>
+      <c r="F61" s="0">
+        <v>7</v>
+      </c>
+      <c r="G61" s="0">
+        <v>4</v>
+      </c>
+      <c r="H61" s="0">
+        <v>70</v>
+      </c>
+      <c r="I61" s="0">
+        <v>40</v>
+      </c>
+      <c r="J61" s="0">
+        <v>6.064321738828027</v>
+      </c>
+      <c r="K61" s="0">
+        <v>3.4653267079017294</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0">
+        <v>5</v>
+      </c>
+      <c r="C62" s="0">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0">
+        <v>5</v>
+      </c>
+      <c r="E62" s="0">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0">
+        <v>4</v>
+      </c>
+      <c r="G62" s="0">
+        <v>6</v>
+      </c>
+      <c r="H62" s="0">
+        <v>40</v>
+      </c>
+      <c r="I62" s="0">
+        <v>60</v>
+      </c>
+      <c r="J62" s="0">
+        <v>3.4649113806415204</v>
+      </c>
+      <c r="K62" s="0">
+        <v>5.19736707096228</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0">
+        <v>5</v>
+      </c>
+      <c r="C63" s="0">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0">
+        <v>5</v>
+      </c>
+      <c r="E63" s="0">
+        <v>13</v>
+      </c>
+      <c r="F63" s="0">
+        <v>3</v>
+      </c>
+      <c r="G63" s="0">
+        <v>5</v>
+      </c>
+      <c r="H63" s="0">
+        <v>30</v>
+      </c>
+      <c r="I63" s="0">
+        <v>50</v>
+      </c>
+      <c r="J63" s="0">
+        <v>2.598963910569758</v>
+      </c>
+      <c r="K63" s="0">
+        <v>4.3316065176162635</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0">
+        <v>7</v>
+      </c>
+      <c r="D64" s="0">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0">
+        <v>7</v>
+      </c>
+      <c r="F64" s="0">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0">
+        <v>5</v>
+      </c>
+      <c r="H64" s="0">
+        <v>10</v>
+      </c>
+      <c r="I64" s="0">
+        <v>50</v>
+      </c>
+      <c r="J64" s="0">
+        <v>0.8661102277023339</v>
+      </c>
+      <c r="K64" s="0">
+        <v>4.3305511385116695</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0">
+        <v>3</v>
+      </c>
+      <c r="C65" s="0">
+        <v>5</v>
+      </c>
+      <c r="D65" s="0">
+        <v>3</v>
+      </c>
+      <c r="E65" s="0">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0">
+        <v>2</v>
+      </c>
+      <c r="G65" s="0">
+        <v>4</v>
+      </c>
+      <c r="H65" s="0">
+        <v>20</v>
+      </c>
+      <c r="I65" s="0">
+        <v>40</v>
+      </c>
+      <c r="J65" s="0">
+        <v>1.7322374256832453</v>
+      </c>
+      <c r="K65" s="0">
+        <v>3.4644748513664907</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0">
+        <v>2</v>
+      </c>
+      <c r="C66" s="0">
+        <v>6</v>
+      </c>
+      <c r="D66" s="0">
+        <v>2</v>
+      </c>
+      <c r="E66" s="0">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0">
+        <v>3</v>
+      </c>
+      <c r="H66" s="0">
+        <v>10</v>
+      </c>
+      <c r="I66" s="0">
+        <v>30</v>
+      </c>
+      <c r="J66" s="0">
+        <v>0.86625812839789</v>
+      </c>
+      <c r="K66" s="0">
+        <v>2.59877438519367</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0">
+        <v>2</v>
+      </c>
+      <c r="C67" s="0">
+        <v>3</v>
+      </c>
+      <c r="D67" s="0">
+        <v>2</v>
+      </c>
+      <c r="E67" s="0">
+        <v>3</v>
+      </c>
+      <c r="F67" s="0">
+        <v>2</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0">
+        <v>20</v>
+      </c>
+      <c r="I67" s="0">
+        <v>0</v>
+      </c>
+      <c r="J67" s="0">
+        <v>1.7322248158227118</v>
+      </c>
+      <c r="K67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0</v>
+      </c>
+      <c r="D68" s="0">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0</v>
+      </c>
+      <c r="F68" s="0">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0">
+        <v>10</v>
+      </c>
+      <c r="I68" s="0">
+        <v>0</v>
+      </c>
+      <c r="J68" s="0">
+        <v>0.8657574462420213</v>
+      </c>
+      <c r="K68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0">
+        <v>2</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0">
+        <v>2</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0">
+        <v>1</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0">
+        <v>10</v>
+      </c>
+      <c r="I69" s="0">
+        <v>0</v>
+      </c>
+      <c r="J69" s="0">
+        <v>0.8657574462420213</v>
+      </c>
+      <c r="K69" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>